--- a/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
+++ b/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hatchery reports</t>
+          <t>hatchery reports</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fence count</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Resistivity counter</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">

--- a/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
+++ b/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:N298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,25 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>fertilized</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>hatchery_fry_release</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>hatchery_eggs_release</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>annual_Barkley_catch</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>annual_Barkley_escapement</t>
         </is>
@@ -437,9 +452,12 @@
         </is>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>16354</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>7000</v>
       </c>
     </row>
@@ -466,9 +484,12 @@
         </is>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>32474</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>8000</v>
       </c>
     </row>
@@ -495,9 +516,12 @@
         </is>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>6006</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>38000</v>
       </c>
     </row>
@@ -524,9 +548,12 @@
         </is>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>325</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1000</v>
       </c>
     </row>
@@ -553,9 +580,12 @@
         </is>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>12350</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>70000</v>
       </c>
     </row>
@@ -582,9 +612,12 @@
         </is>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>1456</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>90000</v>
       </c>
     </row>
@@ -611,9 +644,12 @@
         </is>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>2964</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>120000</v>
       </c>
     </row>
@@ -640,9 +676,12 @@
         </is>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>16081</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>80000</v>
       </c>
     </row>
@@ -677,9 +716,12 @@
         </is>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>45412</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>75695</v>
       </c>
     </row>
@@ -714,9 +756,12 @@
         </is>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>91069</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>70000</v>
       </c>
     </row>
@@ -751,9 +796,12 @@
         </is>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>38000</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>70000</v>
       </c>
     </row>
@@ -780,9 +828,12 @@
         </is>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>18000</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>138018</v>
       </c>
     </row>
@@ -817,9 +868,12 @@
         </is>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>58600</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>49501</v>
       </c>
     </row>
@@ -854,9 +908,12 @@
         </is>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>59260</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>56920</v>
       </c>
     </row>
@@ -891,9 +948,12 @@
         </is>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>105000</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>37472</v>
       </c>
     </row>
@@ -928,9 +988,12 @@
         </is>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>80500</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>9206</v>
       </c>
     </row>
@@ -965,9 +1028,12 @@
         </is>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>81500</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>19858</v>
       </c>
     </row>
@@ -994,9 +1060,12 @@
         </is>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>71020</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>50953</v>
       </c>
     </row>
@@ -1023,9 +1092,12 @@
         </is>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>94580</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>14206</v>
       </c>
     </row>
@@ -1052,9 +1124,12 @@
         </is>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>61000</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>45365</v>
       </c>
     </row>
@@ -1081,9 +1156,15 @@
         </is>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>47300</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>15894</v>
       </c>
     </row>
@@ -1110,9 +1191,15 @@
         </is>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>51000</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>17119</v>
       </c>
     </row>
@@ -1139,9 +1226,15 @@
         </is>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>26580</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>62936</v>
       </c>
     </row>
@@ -1168,9 +1261,15 @@
         </is>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>25000</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>16625</v>
       </c>
     </row>
@@ -1197,9 +1296,15 @@
         </is>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>29200</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>22823</v>
       </c>
     </row>
@@ -1226,9 +1331,15 @@
         </is>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>38860</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>10421</v>
       </c>
     </row>
@@ -1255,9 +1366,15 @@
         </is>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>14600</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>9537</v>
       </c>
     </row>
@@ -1284,9 +1401,15 @@
         </is>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>11800</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>40245</v>
       </c>
     </row>
@@ -1313,9 +1436,15 @@
         </is>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>13980</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>19986</v>
       </c>
     </row>
@@ -1342,9 +1471,15 @@
         </is>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>5440</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>12900</v>
       </c>
     </row>
@@ -1371,9 +1506,15 @@
         </is>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>9560</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>11167</v>
       </c>
     </row>
@@ -1400,9 +1541,15 @@
         </is>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>35720</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>80418</v>
       </c>
     </row>
@@ -1429,9 +1576,15 @@
         </is>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>55190</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>44000</v>
       </c>
     </row>
@@ -1458,9 +1611,15 @@
         </is>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>76018</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>89000</v>
       </c>
     </row>
@@ -1487,9 +1646,15 @@
         </is>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>50094</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>36000</v>
       </c>
     </row>
@@ -1516,9 +1681,15 @@
         </is>
       </c>
       <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>76328</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>64000</v>
       </c>
     </row>
@@ -1545,9 +1716,15 @@
         </is>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>38405</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>65000</v>
       </c>
     </row>
@@ -1574,9 +1751,15 @@
         </is>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>28714</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>39000</v>
       </c>
     </row>
@@ -1603,9 +1786,15 @@
         </is>
       </c>
       <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>8934</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>17000</v>
       </c>
     </row>
@@ -1632,9 +1821,15 @@
         </is>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>11749</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>147000</v>
       </c>
     </row>
@@ -1661,9 +1856,15 @@
         </is>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>8296</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>54000</v>
       </c>
     </row>
@@ -1690,9 +1891,15 @@
         </is>
       </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>6966</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>54000</v>
       </c>
     </row>
@@ -1719,9 +1926,15 @@
         </is>
       </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>9144</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>50000</v>
       </c>
     </row>
@@ -1748,9 +1961,15 @@
         </is>
       </c>
       <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>21864</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>50000</v>
       </c>
     </row>
@@ -1777,9 +1996,15 @@
         </is>
       </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>16299</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>58000</v>
       </c>
     </row>
@@ -1806,9 +2031,15 @@
         </is>
       </c>
       <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>11065</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>50000</v>
       </c>
     </row>
@@ -1835,9 +2066,15 @@
         </is>
       </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>11218</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>113000</v>
       </c>
     </row>
@@ -1864,9 +2101,15 @@
         </is>
       </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>17657</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>56000</v>
       </c>
     </row>
@@ -1893,9 +2136,15 @@
         </is>
       </c>
       <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>29151</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>176000</v>
       </c>
     </row>
@@ -1922,9 +2171,15 @@
         </is>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>31022</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>135500</v>
       </c>
     </row>
@@ -1951,9 +2206,15 @@
         </is>
       </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>28828</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>137600</v>
       </c>
     </row>
@@ -1980,9 +2241,15 @@
         </is>
       </c>
       <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>56787</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>114900</v>
       </c>
     </row>
@@ -2017,9 +2284,15 @@
         </is>
       </c>
       <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>89092</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>42100</v>
       </c>
     </row>
@@ -2054,9 +2327,15 @@
         </is>
       </c>
       <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>51875</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>71700</v>
       </c>
     </row>
@@ -2096,9 +2375,15 @@
         </is>
       </c>
       <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>225718</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>139400</v>
       </c>
     </row>
@@ -2138,9 +2423,15 @@
         </is>
       </c>
       <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>451615</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>301700</v>
       </c>
     </row>
@@ -2180,9 +2471,15 @@
         </is>
       </c>
       <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>427790</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>98100</v>
       </c>
     </row>
@@ -2222,9 +2519,15 @@
         </is>
       </c>
       <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>440977</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>195600</v>
       </c>
     </row>
@@ -2264,9 +2567,15 @@
         </is>
       </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>1408490</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>151800</v>
       </c>
     </row>
@@ -2306,9 +2615,15 @@
         </is>
       </c>
       <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>1122813.89493761</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>297800</v>
       </c>
     </row>
@@ -2348,9 +2663,15 @@
         </is>
       </c>
       <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>197067.6970766333</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>158900</v>
       </c>
     </row>
@@ -2390,9 +2711,15 @@
         </is>
       </c>
       <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>821100.0024423746</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>360441</v>
       </c>
     </row>
@@ -2432,9 +2759,15 @@
         </is>
       </c>
       <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>695952.2532801195</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>415212</v>
       </c>
     </row>
@@ -2474,9 +2807,15 @@
         </is>
       </c>
       <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>1038876.317981237</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>410789</v>
       </c>
     </row>
@@ -2516,9 +2855,15 @@
         </is>
       </c>
       <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="M66">
         <v>452601.0276631281</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>464820</v>
       </c>
     </row>
@@ -2558,9 +2903,15 @@
         </is>
       </c>
       <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="M67">
         <v>887925.5541521215</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>636512</v>
       </c>
     </row>
@@ -2600,9 +2951,15 @@
         </is>
       </c>
       <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="M68">
         <v>945916</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>295810.0000000001</v>
       </c>
     </row>
@@ -2642,9 +2999,15 @@
         </is>
       </c>
       <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="M69">
         <v>458017.8992869732</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>285725</v>
       </c>
     </row>
@@ -2684,9 +3047,15 @@
         </is>
       </c>
       <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>56948</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>334648</v>
       </c>
     </row>
@@ -2726,9 +3095,15 @@
         </is>
       </c>
       <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <v>263260</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>473349.9999999999</v>
       </c>
     </row>
@@ -2768,9 +3143,15 @@
         </is>
       </c>
       <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="M72">
         <v>326897.5916</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>482393.0000000001</v>
       </c>
     </row>
@@ -2810,9 +3191,15 @@
         </is>
       </c>
       <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>28383.471375</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>449850.0000000001</v>
       </c>
     </row>
@@ -2852,9 +3239,15 @@
         </is>
       </c>
       <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>37390</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>323281</v>
       </c>
     </row>
@@ -2894,9 +3287,15 @@
         </is>
       </c>
       <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>1181307</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>680965.0000000001</v>
       </c>
     </row>
@@ -2936,9 +3335,15 @@
         </is>
       </c>
       <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>70000</v>
+      </c>
+      <c r="M76">
         <v>579970.1466654321</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>437791</v>
       </c>
     </row>
@@ -2978,9 +3383,15 @@
         </is>
       </c>
       <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>659000</v>
+      </c>
+      <c r="M77">
         <v>817369</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>627550</v>
       </c>
     </row>
@@ -3020,9 +3431,15 @@
         </is>
       </c>
       <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>658000</v>
+      </c>
+      <c r="M78">
         <v>214571</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>274663.0000000001</v>
       </c>
     </row>
@@ -3062,9 +3479,15 @@
         </is>
       </c>
       <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>206000</v>
+      </c>
+      <c r="M79">
         <v>30536.00420168067</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>170811</v>
       </c>
     </row>
@@ -3104,9 +3527,15 @@
         </is>
       </c>
       <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>862000</v>
+      </c>
+      <c r="M80">
         <v>62596.00000000001</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>501780</v>
       </c>
     </row>
@@ -3146,9 +3575,15 @@
         </is>
       </c>
       <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1025000</v>
+      </c>
+      <c r="M81">
         <v>156384</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>356203.9999999999</v>
       </c>
     </row>
@@ -3188,9 +3623,15 @@
         </is>
       </c>
       <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>860000</v>
+      </c>
+      <c r="M82">
         <v>235130.7241488512</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>640127.0000000001</v>
       </c>
     </row>
@@ -3230,9 +3671,15 @@
         </is>
       </c>
       <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1200000</v>
+      </c>
+      <c r="M83">
         <v>115856.068</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>394147.213702481</v>
       </c>
     </row>
@@ -3272,9 +3719,15 @@
         </is>
       </c>
       <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1900000</v>
+      </c>
+      <c r="M84">
         <v>105163.5893782173</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>223098.0000000001</v>
       </c>
     </row>
@@ -3314,9 +3767,15 @@
         </is>
       </c>
       <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>2100000</v>
+      </c>
+      <c r="M85">
         <v>233776.9205341995</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>800244.862243237</v>
       </c>
     </row>
@@ -3356,9 +3815,15 @@
         </is>
       </c>
       <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>2300000</v>
+      </c>
+      <c r="M86">
         <v>600455.7875803118</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>522744.7806640534</v>
       </c>
     </row>
@@ -3393,9 +3858,15 @@
         </is>
       </c>
       <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>783000</v>
+      </c>
+      <c r="M87">
         <v>531341.3718806775</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>443175.6307078647</v>
       </c>
     </row>
@@ -3430,9 +3901,15 @@
         </is>
       </c>
       <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>755300</v>
+      </c>
+      <c r="M88">
         <v>334435.1661</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>377681</v>
       </c>
     </row>
@@ -3467,9 +3944,15 @@
         </is>
       </c>
       <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>97750</v>
+      </c>
+      <c r="M89">
         <v>105345.3813728291</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>347117.1404960908</v>
       </c>
     </row>
@@ -3504,9 +3987,15 @@
         </is>
       </c>
       <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1558240</v>
+      </c>
+      <c r="M90">
         <v>90500.48540000001</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>203635.7296855859</v>
       </c>
     </row>
@@ -3546,9 +4035,15 @@
         </is>
       </c>
       <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="M91">
         <v>10040</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>162815.0000000001</v>
       </c>
     </row>
@@ -3591,6 +4086,12 @@
         <v>0</v>
       </c>
       <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
         <v>203968.0067567567</v>
       </c>
     </row>
@@ -3622,9 +4123,15 @@
         </is>
       </c>
       <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="M93">
         <v>149521.6328902802</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>430072.2876649234</v>
       </c>
     </row>
@@ -3656,9 +4163,15 @@
         </is>
       </c>
       <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="M94">
         <v>938124.682827242</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>830435</v>
       </c>
     </row>
@@ -3698,9 +4211,15 @@
         </is>
       </c>
       <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="M95">
         <v>590914.3653989306</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>905456.9999999998</v>
       </c>
     </row>
@@ -3740,9 +4259,15 @@
         </is>
       </c>
       <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="M96">
         <v>385592.5588652157</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>395857.9999999999</v>
       </c>
     </row>
@@ -3782,9 +4307,15 @@
         </is>
       </c>
       <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="M97">
         <v>89406.92896357566</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>664957.5864587885</v>
       </c>
     </row>
@@ -3824,9 +4355,15 @@
         </is>
       </c>
       <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="M98">
         <v>676503.3420213063</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>539951.848459169</v>
       </c>
     </row>
@@ -3866,9 +4403,15 @@
         </is>
       </c>
       <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="M99">
         <v>1309599</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <v>764186.6399999999</v>
       </c>
     </row>
@@ -3908,9 +4451,15 @@
         </is>
       </c>
       <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="M100">
         <v>662128</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>468215.01</v>
       </c>
     </row>
@@ -3950,9 +4499,15 @@
         </is>
       </c>
       <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="M101">
         <v>97288.52343308111</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>457992.6800000002</v>
       </c>
     </row>
@@ -3992,9 +4547,15 @@
         </is>
       </c>
       <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="M102">
         <v>82158.61597752468</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>208635.1100000002</v>
       </c>
     </row>
@@ -4034,9 +4595,15 @@
         </is>
       </c>
       <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="M103">
         <v>54797.43787213185</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>191725.02</v>
       </c>
     </row>
@@ -4076,9 +4643,15 @@
         </is>
       </c>
       <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>74112.09621734613</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>314010.15</v>
       </c>
     </row>
@@ -4118,9 +4691,15 @@
         </is>
       </c>
       <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="M105">
         <v>187163</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>422040</v>
       </c>
     </row>
@@ -4160,9 +4739,15 @@
         </is>
       </c>
       <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="M106">
         <v>351689</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>669650</v>
       </c>
     </row>
@@ -4202,9 +4787,15 @@
         </is>
       </c>
       <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="M107">
         <v>328495.6625937843</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>377396.0000000001</v>
       </c>
     </row>
@@ -4226,9 +4817,15 @@
         </is>
       </c>
       <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>2002000</v>
+      </c>
+      <c r="M108">
         <v>45412</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>75695</v>
       </c>
     </row>
@@ -4250,9 +4847,15 @@
         </is>
       </c>
       <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1505000</v>
+      </c>
+      <c r="M109">
         <v>18000</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>138018</v>
       </c>
     </row>
@@ -4274,9 +4877,15 @@
         </is>
       </c>
       <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
         <v>58600</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>49501</v>
       </c>
     </row>
@@ -4300,9 +4909,15 @@
         </is>
       </c>
       <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
         <v>58600</v>
       </c>
-      <c r="K111">
+      <c r="N111">
         <v>49501</v>
       </c>
     </row>
@@ -4324,9 +4939,15 @@
         </is>
       </c>
       <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
         <v>59260</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>56920</v>
       </c>
     </row>
@@ -4350,9 +4971,15 @@
         </is>
       </c>
       <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
         <v>59260</v>
       </c>
-      <c r="K113">
+      <c r="N113">
         <v>56920</v>
       </c>
     </row>
@@ -4374,9 +5001,15 @@
         </is>
       </c>
       <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>2002000</v>
+      </c>
+      <c r="M114">
         <v>105000</v>
       </c>
-      <c r="K114">
+      <c r="N114">
         <v>37472</v>
       </c>
     </row>
@@ -4400,9 +5033,15 @@
         </is>
       </c>
       <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1505000</v>
+      </c>
+      <c r="M115">
         <v>105000</v>
       </c>
-      <c r="K115">
+      <c r="N115">
         <v>37472</v>
       </c>
     </row>
@@ -4424,9 +5063,15 @@
         </is>
       </c>
       <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
         <v>80500</v>
       </c>
-      <c r="K116">
+      <c r="N116">
         <v>9206</v>
       </c>
     </row>
@@ -4450,9 +5095,15 @@
         </is>
       </c>
       <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
         <v>80500</v>
       </c>
-      <c r="K117">
+      <c r="N117">
         <v>9206</v>
       </c>
     </row>
@@ -4474,9 +5125,15 @@
         </is>
       </c>
       <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
         <v>81500</v>
       </c>
-      <c r="K118">
+      <c r="N118">
         <v>19858</v>
       </c>
     </row>
@@ -4500,9 +5157,15 @@
         </is>
       </c>
       <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
         <v>81500</v>
       </c>
-      <c r="K119">
+      <c r="N119">
         <v>19858</v>
       </c>
     </row>
@@ -4524,9 +5187,15 @@
         </is>
       </c>
       <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
         <v>71020</v>
       </c>
-      <c r="K120">
+      <c r="N120">
         <v>50953</v>
       </c>
     </row>
@@ -4550,9 +5219,15 @@
         </is>
       </c>
       <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
         <v>71020</v>
       </c>
-      <c r="K121">
+      <c r="N121">
         <v>50953</v>
       </c>
     </row>
@@ -4574,9 +5249,15 @@
         </is>
       </c>
       <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
         <v>94580</v>
       </c>
-      <c r="K122">
+      <c r="N122">
         <v>14206</v>
       </c>
     </row>
@@ -4600,9 +5281,15 @@
         </is>
       </c>
       <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
         <v>94580</v>
       </c>
-      <c r="K123">
+      <c r="N123">
         <v>14206</v>
       </c>
     </row>
@@ -4624,9 +5311,15 @@
         </is>
       </c>
       <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
         <v>61000</v>
       </c>
-      <c r="K124">
+      <c r="N124">
         <v>45365</v>
       </c>
     </row>
@@ -4648,9 +5341,15 @@
         </is>
       </c>
       <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
         <v>47300</v>
       </c>
-      <c r="K125">
+      <c r="N125">
         <v>15894</v>
       </c>
     </row>
@@ -4674,9 +5373,15 @@
         </is>
       </c>
       <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
         <v>47300</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>15894</v>
       </c>
     </row>
@@ -4698,9 +5403,15 @@
         </is>
       </c>
       <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
         <v>51000</v>
       </c>
-      <c r="K127">
+      <c r="N127">
         <v>17119</v>
       </c>
     </row>
@@ -4724,9 +5435,15 @@
         </is>
       </c>
       <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
         <v>51000</v>
       </c>
-      <c r="K128">
+      <c r="N128">
         <v>17119</v>
       </c>
     </row>
@@ -4748,9 +5465,15 @@
         </is>
       </c>
       <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
         <v>26580</v>
       </c>
-      <c r="K129">
+      <c r="N129">
         <v>62936</v>
       </c>
     </row>
@@ -4774,9 +5497,15 @@
         </is>
       </c>
       <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
         <v>26580</v>
       </c>
-      <c r="K130">
+      <c r="N130">
         <v>62936</v>
       </c>
     </row>
@@ -4798,9 +5527,15 @@
         </is>
       </c>
       <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
         <v>25000</v>
       </c>
-      <c r="K131">
+      <c r="N131">
         <v>16625</v>
       </c>
     </row>
@@ -4824,9 +5559,15 @@
         </is>
       </c>
       <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
         <v>25000</v>
       </c>
-      <c r="K132">
+      <c r="N132">
         <v>16625</v>
       </c>
     </row>
@@ -4848,9 +5589,15 @@
         </is>
       </c>
       <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
         <v>29200</v>
       </c>
-      <c r="K133">
+      <c r="N133">
         <v>22823</v>
       </c>
     </row>
@@ -4874,9 +5621,15 @@
         </is>
       </c>
       <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
         <v>29200</v>
       </c>
-      <c r="K134">
+      <c r="N134">
         <v>22823</v>
       </c>
     </row>
@@ -4898,9 +5651,15 @@
         </is>
       </c>
       <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
         <v>38860</v>
       </c>
-      <c r="K135">
+      <c r="N135">
         <v>10421</v>
       </c>
     </row>
@@ -4922,9 +5681,15 @@
         </is>
       </c>
       <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
         <v>14600</v>
       </c>
-      <c r="K136">
+      <c r="N136">
         <v>9537</v>
       </c>
     </row>
@@ -4946,9 +5711,15 @@
         </is>
       </c>
       <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
         <v>11800</v>
       </c>
-      <c r="K137">
+      <c r="N137">
         <v>40245</v>
       </c>
     </row>
@@ -4970,9 +5741,15 @@
         </is>
       </c>
       <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
         <v>13980</v>
       </c>
-      <c r="K138">
+      <c r="N138">
         <v>19986</v>
       </c>
     </row>
@@ -4994,9 +5771,15 @@
         </is>
       </c>
       <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
         <v>5440</v>
       </c>
-      <c r="K139">
+      <c r="N139">
         <v>12900</v>
       </c>
     </row>
@@ -5018,9 +5801,15 @@
         </is>
       </c>
       <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
         <v>9560</v>
       </c>
-      <c r="K140">
+      <c r="N140">
         <v>11167</v>
       </c>
     </row>
@@ -5042,9 +5831,15 @@
         </is>
       </c>
       <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
         <v>35720</v>
       </c>
-      <c r="K141">
+      <c r="N141">
         <v>80418</v>
       </c>
     </row>
@@ -5066,9 +5861,15 @@
         </is>
       </c>
       <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
         <v>55190</v>
       </c>
-      <c r="K142">
+      <c r="N142">
         <v>44000</v>
       </c>
     </row>
@@ -5090,9 +5891,15 @@
         </is>
       </c>
       <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
         <v>55190</v>
       </c>
-      <c r="K143">
+      <c r="N143">
         <v>44000</v>
       </c>
     </row>
@@ -5114,9 +5921,15 @@
         </is>
       </c>
       <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
         <v>76018</v>
       </c>
-      <c r="K144">
+      <c r="N144">
         <v>89000</v>
       </c>
     </row>
@@ -5138,9 +5951,15 @@
         </is>
       </c>
       <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
         <v>76018</v>
       </c>
-      <c r="K145">
+      <c r="N145">
         <v>89000</v>
       </c>
     </row>
@@ -5162,9 +5981,15 @@
         </is>
       </c>
       <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
         <v>50094</v>
       </c>
-      <c r="K146">
+      <c r="N146">
         <v>36000</v>
       </c>
     </row>
@@ -5186,9 +6011,15 @@
         </is>
       </c>
       <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
         <v>50094</v>
       </c>
-      <c r="K147">
+      <c r="N147">
         <v>36000</v>
       </c>
     </row>
@@ -5210,9 +6041,15 @@
         </is>
       </c>
       <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
         <v>76328</v>
       </c>
-      <c r="K148">
+      <c r="N148">
         <v>64000</v>
       </c>
     </row>
@@ -5234,9 +6071,15 @@
         </is>
       </c>
       <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
         <v>76328</v>
       </c>
-      <c r="K149">
+      <c r="N149">
         <v>64000</v>
       </c>
     </row>
@@ -5258,9 +6101,15 @@
         </is>
       </c>
       <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
         <v>38405</v>
       </c>
-      <c r="K150">
+      <c r="N150">
         <v>65000</v>
       </c>
     </row>
@@ -5282,9 +6131,15 @@
         </is>
       </c>
       <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
         <v>38405</v>
       </c>
-      <c r="K151">
+      <c r="N151">
         <v>65000</v>
       </c>
     </row>
@@ -5306,9 +6161,15 @@
         </is>
       </c>
       <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
         <v>28714</v>
       </c>
-      <c r="K152">
+      <c r="N152">
         <v>39000</v>
       </c>
     </row>
@@ -5330,9 +6191,15 @@
         </is>
       </c>
       <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
         <v>28714</v>
       </c>
-      <c r="K153">
+      <c r="N153">
         <v>39000</v>
       </c>
     </row>
@@ -5354,9 +6221,15 @@
         </is>
       </c>
       <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
         <v>8934</v>
       </c>
-      <c r="K154">
+      <c r="N154">
         <v>17000</v>
       </c>
     </row>
@@ -5378,9 +6251,15 @@
         </is>
       </c>
       <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
         <v>8934</v>
       </c>
-      <c r="K155">
+      <c r="N155">
         <v>17000</v>
       </c>
     </row>
@@ -5402,9 +6281,15 @@
         </is>
       </c>
       <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
         <v>11749</v>
       </c>
-      <c r="K156">
+      <c r="N156">
         <v>147000</v>
       </c>
     </row>
@@ -5426,9 +6311,15 @@
         </is>
       </c>
       <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
         <v>11749</v>
       </c>
-      <c r="K157">
+      <c r="N157">
         <v>147000</v>
       </c>
     </row>
@@ -5450,9 +6341,15 @@
         </is>
       </c>
       <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
         <v>8296</v>
       </c>
-      <c r="K158">
+      <c r="N158">
         <v>54000</v>
       </c>
     </row>
@@ -5474,9 +6371,15 @@
         </is>
       </c>
       <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
         <v>8296</v>
       </c>
-      <c r="K159">
+      <c r="N159">
         <v>54000</v>
       </c>
     </row>
@@ -5498,9 +6401,15 @@
         </is>
       </c>
       <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
         <v>6966</v>
       </c>
-      <c r="K160">
+      <c r="N160">
         <v>54000</v>
       </c>
     </row>
@@ -5522,9 +6431,15 @@
         </is>
       </c>
       <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
         <v>6966</v>
       </c>
-      <c r="K161">
+      <c r="N161">
         <v>54000</v>
       </c>
     </row>
@@ -5546,9 +6461,15 @@
         </is>
       </c>
       <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
         <v>9144</v>
       </c>
-      <c r="K162">
+      <c r="N162">
         <v>50000</v>
       </c>
     </row>
@@ -5570,9 +6491,15 @@
         </is>
       </c>
       <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
         <v>9144</v>
       </c>
-      <c r="K163">
+      <c r="N163">
         <v>50000</v>
       </c>
     </row>
@@ -5594,9 +6521,15 @@
         </is>
       </c>
       <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
         <v>21864</v>
       </c>
-      <c r="K164">
+      <c r="N164">
         <v>50000</v>
       </c>
     </row>
@@ -5618,9 +6551,15 @@
         </is>
       </c>
       <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
         <v>21864</v>
       </c>
-      <c r="K165">
+      <c r="N165">
         <v>50000</v>
       </c>
     </row>
@@ -5642,9 +6581,15 @@
         </is>
       </c>
       <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
         <v>16299</v>
       </c>
-      <c r="K166">
+      <c r="N166">
         <v>58000</v>
       </c>
     </row>
@@ -5666,9 +6611,15 @@
         </is>
       </c>
       <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
         <v>16299</v>
       </c>
-      <c r="K167">
+      <c r="N167">
         <v>58000</v>
       </c>
     </row>
@@ -5690,9 +6641,15 @@
         </is>
       </c>
       <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
         <v>11065</v>
       </c>
-      <c r="K168">
+      <c r="N168">
         <v>50000</v>
       </c>
     </row>
@@ -5714,9 +6671,15 @@
         </is>
       </c>
       <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
         <v>11065</v>
       </c>
-      <c r="K169">
+      <c r="N169">
         <v>50000</v>
       </c>
     </row>
@@ -5738,9 +6701,15 @@
         </is>
       </c>
       <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
         <v>11218</v>
       </c>
-      <c r="K170">
+      <c r="N170">
         <v>113000</v>
       </c>
     </row>
@@ -5762,9 +6731,15 @@
         </is>
       </c>
       <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
         <v>11218</v>
       </c>
-      <c r="K171">
+      <c r="N171">
         <v>113000</v>
       </c>
     </row>
@@ -5786,9 +6761,15 @@
         </is>
       </c>
       <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
         <v>17657</v>
       </c>
-      <c r="K172">
+      <c r="N172">
         <v>56000</v>
       </c>
     </row>
@@ -5810,9 +6791,15 @@
         </is>
       </c>
       <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
         <v>17657</v>
       </c>
-      <c r="K173">
+      <c r="N173">
         <v>56000</v>
       </c>
     </row>
@@ -5834,9 +6821,15 @@
         </is>
       </c>
       <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
         <v>29151</v>
       </c>
-      <c r="K174">
+      <c r="N174">
         <v>176000</v>
       </c>
     </row>
@@ -5858,9 +6851,15 @@
         </is>
       </c>
       <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
         <v>29151</v>
       </c>
-      <c r="K175">
+      <c r="N175">
         <v>176000</v>
       </c>
     </row>
@@ -5882,9 +6881,15 @@
         </is>
       </c>
       <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
         <v>31022</v>
       </c>
-      <c r="K176">
+      <c r="N176">
         <v>135500</v>
       </c>
     </row>
@@ -5906,9 +6911,15 @@
         </is>
       </c>
       <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
         <v>31022</v>
       </c>
-      <c r="K177">
+      <c r="N177">
         <v>135500</v>
       </c>
     </row>
@@ -5930,9 +6941,15 @@
         </is>
       </c>
       <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
         <v>28828</v>
       </c>
-      <c r="K178">
+      <c r="N178">
         <v>137600</v>
       </c>
     </row>
@@ -5954,9 +6971,15 @@
         </is>
       </c>
       <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
         <v>28828</v>
       </c>
-      <c r="K179">
+      <c r="N179">
         <v>137600</v>
       </c>
     </row>
@@ -5978,9 +7001,15 @@
         </is>
       </c>
       <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
         <v>56787</v>
       </c>
-      <c r="K180">
+      <c r="N180">
         <v>114900</v>
       </c>
     </row>
@@ -6002,9 +7031,15 @@
         </is>
       </c>
       <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
         <v>56787</v>
       </c>
-      <c r="K181">
+      <c r="N181">
         <v>114900</v>
       </c>
     </row>
@@ -6039,9 +7074,15 @@
         </is>
       </c>
       <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
         <v>89092</v>
       </c>
-      <c r="K182">
+      <c r="N182">
         <v>42100</v>
       </c>
     </row>
@@ -6076,9 +7117,15 @@
         </is>
       </c>
       <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
         <v>89092</v>
       </c>
-      <c r="K183">
+      <c r="N183">
         <v>42100</v>
       </c>
     </row>
@@ -6113,9 +7160,15 @@
         </is>
       </c>
       <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
         <v>51875</v>
       </c>
-      <c r="K184">
+      <c r="N184">
         <v>71700</v>
       </c>
     </row>
@@ -6150,9 +7203,15 @@
         </is>
       </c>
       <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
         <v>51875</v>
       </c>
-      <c r="K185">
+      <c r="N185">
         <v>71700</v>
       </c>
     </row>
@@ -6187,9 +7246,15 @@
         </is>
       </c>
       <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
         <v>225718</v>
       </c>
-      <c r="K186">
+      <c r="N186">
         <v>139400</v>
       </c>
     </row>
@@ -6224,9 +7289,15 @@
         </is>
       </c>
       <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
         <v>225718</v>
       </c>
-      <c r="K187">
+      <c r="N187">
         <v>139400</v>
       </c>
     </row>
@@ -6261,9 +7332,15 @@
         </is>
       </c>
       <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
         <v>451615</v>
       </c>
-      <c r="K188">
+      <c r="N188">
         <v>301700</v>
       </c>
     </row>
@@ -6298,9 +7375,15 @@
         </is>
       </c>
       <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
         <v>451615</v>
       </c>
-      <c r="K189">
+      <c r="N189">
         <v>301700</v>
       </c>
     </row>
@@ -6335,9 +7418,15 @@
         </is>
       </c>
       <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
         <v>427790</v>
       </c>
-      <c r="K190">
+      <c r="N190">
         <v>98100</v>
       </c>
     </row>
@@ -6372,9 +7461,15 @@
         </is>
       </c>
       <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
         <v>427790</v>
       </c>
-      <c r="K191">
+      <c r="N191">
         <v>98100</v>
       </c>
     </row>
@@ -6409,9 +7504,15 @@
         </is>
       </c>
       <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
         <v>440977</v>
       </c>
-      <c r="K192">
+      <c r="N192">
         <v>195600</v>
       </c>
     </row>
@@ -6446,9 +7547,15 @@
         </is>
       </c>
       <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
         <v>440977</v>
       </c>
-      <c r="K193">
+      <c r="N193">
         <v>195600</v>
       </c>
     </row>
@@ -6483,9 +7590,15 @@
         </is>
       </c>
       <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
         <v>1408490</v>
       </c>
-      <c r="K194">
+      <c r="N194">
         <v>151800</v>
       </c>
     </row>
@@ -6520,9 +7633,15 @@
         </is>
       </c>
       <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
         <v>1408490</v>
       </c>
-      <c r="K195">
+      <c r="N195">
         <v>151800</v>
       </c>
     </row>
@@ -6562,9 +7681,15 @@
         </is>
       </c>
       <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
         <v>1122813.89493761</v>
       </c>
-      <c r="K196">
+      <c r="N196">
         <v>297800</v>
       </c>
     </row>
@@ -6604,9 +7729,15 @@
         </is>
       </c>
       <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
         <v>1122813.89493761</v>
       </c>
-      <c r="K197">
+      <c r="N197">
         <v>297800</v>
       </c>
     </row>
@@ -6646,9 +7777,15 @@
         </is>
       </c>
       <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
         <v>197067.6970766333</v>
       </c>
-      <c r="K198">
+      <c r="N198">
         <v>158900</v>
       </c>
     </row>
@@ -6688,9 +7825,15 @@
         </is>
       </c>
       <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
         <v>197067.6970766333</v>
       </c>
-      <c r="K199">
+      <c r="N199">
         <v>158900</v>
       </c>
     </row>
@@ -6730,9 +7873,15 @@
         </is>
       </c>
       <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
         <v>821100.0024423746</v>
       </c>
-      <c r="K200">
+      <c r="N200">
         <v>360441</v>
       </c>
     </row>
@@ -6772,9 +7921,15 @@
         </is>
       </c>
       <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
         <v>821100.0024423746</v>
       </c>
-      <c r="K201">
+      <c r="N201">
         <v>360441</v>
       </c>
     </row>
@@ -6814,9 +7969,15 @@
         </is>
       </c>
       <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
         <v>695952.2532801195</v>
       </c>
-      <c r="K202">
+      <c r="N202">
         <v>415212</v>
       </c>
     </row>
@@ -6856,9 +8017,15 @@
         </is>
       </c>
       <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
         <v>695952.2532801195</v>
       </c>
-      <c r="K203">
+      <c r="N203">
         <v>415212</v>
       </c>
     </row>
@@ -6898,9 +8065,15 @@
         </is>
       </c>
       <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
         <v>1038876.317981237</v>
       </c>
-      <c r="K204">
+      <c r="N204">
         <v>410789</v>
       </c>
     </row>
@@ -6940,9 +8113,15 @@
         </is>
       </c>
       <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
         <v>1038876.317981237</v>
       </c>
-      <c r="K205">
+      <c r="N205">
         <v>410789</v>
       </c>
     </row>
@@ -6982,9 +8161,15 @@
         </is>
       </c>
       <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
         <v>452601.0276631281</v>
       </c>
-      <c r="K206">
+      <c r="N206">
         <v>464820</v>
       </c>
     </row>
@@ -7024,9 +8209,15 @@
         </is>
       </c>
       <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
         <v>452601.0276631281</v>
       </c>
-      <c r="K207">
+      <c r="N207">
         <v>464820</v>
       </c>
     </row>
@@ -7066,9 +8257,15 @@
         </is>
       </c>
       <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
         <v>887925.5541521215</v>
       </c>
-      <c r="K208">
+      <c r="N208">
         <v>636512</v>
       </c>
     </row>
@@ -7108,9 +8305,15 @@
         </is>
       </c>
       <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
         <v>887925.5541521215</v>
       </c>
-      <c r="K209">
+      <c r="N209">
         <v>636512</v>
       </c>
     </row>
@@ -7150,9 +8353,15 @@
         </is>
       </c>
       <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210">
         <v>945916</v>
       </c>
-      <c r="K210">
+      <c r="N210">
         <v>295810.0000000001</v>
       </c>
     </row>
@@ -7192,9 +8401,15 @@
         </is>
       </c>
       <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
         <v>945916</v>
       </c>
-      <c r="K211">
+      <c r="N211">
         <v>295810.0000000001</v>
       </c>
     </row>
@@ -7234,9 +8449,15 @@
         </is>
       </c>
       <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
         <v>458017.8992869732</v>
       </c>
-      <c r="K212">
+      <c r="N212">
         <v>285725</v>
       </c>
     </row>
@@ -7276,9 +8497,15 @@
         </is>
       </c>
       <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
         <v>458017.8992869732</v>
       </c>
-      <c r="K213">
+      <c r="N213">
         <v>285725</v>
       </c>
     </row>
@@ -7318,9 +8545,15 @@
         </is>
       </c>
       <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
         <v>56948</v>
       </c>
-      <c r="K214">
+      <c r="N214">
         <v>334648</v>
       </c>
     </row>
@@ -7360,9 +8593,15 @@
         </is>
       </c>
       <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
         <v>56948</v>
       </c>
-      <c r="K215">
+      <c r="N215">
         <v>334648</v>
       </c>
     </row>
@@ -7402,9 +8641,15 @@
         </is>
       </c>
       <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>0</v>
+      </c>
+      <c r="M216">
         <v>263260</v>
       </c>
-      <c r="K216">
+      <c r="N216">
         <v>473349.9999999999</v>
       </c>
     </row>
@@ -7444,9 +8689,15 @@
         </is>
       </c>
       <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
         <v>263260</v>
       </c>
-      <c r="K217">
+      <c r="N217">
         <v>473349.9999999999</v>
       </c>
     </row>
@@ -7486,9 +8737,15 @@
         </is>
       </c>
       <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
         <v>326897.5916</v>
       </c>
-      <c r="K218">
+      <c r="N218">
         <v>482393.0000000001</v>
       </c>
     </row>
@@ -7528,9 +8785,15 @@
         </is>
       </c>
       <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
         <v>326897.5916</v>
       </c>
-      <c r="K219">
+      <c r="N219">
         <v>482393.0000000001</v>
       </c>
     </row>
@@ -7570,9 +8833,15 @@
         </is>
       </c>
       <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="M220">
         <v>28383.471375</v>
       </c>
-      <c r="K220">
+      <c r="N220">
         <v>449850.0000000001</v>
       </c>
     </row>
@@ -7612,9 +8881,15 @@
         </is>
       </c>
       <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
         <v>28383.471375</v>
       </c>
-      <c r="K221">
+      <c r="N221">
         <v>449850.0000000001</v>
       </c>
     </row>
@@ -7654,9 +8929,15 @@
         </is>
       </c>
       <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
         <v>37390</v>
       </c>
-      <c r="K222">
+      <c r="N222">
         <v>323281</v>
       </c>
     </row>
@@ -7696,9 +8977,15 @@
         </is>
       </c>
       <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
         <v>37390</v>
       </c>
-      <c r="K223">
+      <c r="N223">
         <v>323281</v>
       </c>
     </row>
@@ -7738,9 +9025,15 @@
         </is>
       </c>
       <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
         <v>1181307</v>
       </c>
-      <c r="K224">
+      <c r="N224">
         <v>680965.0000000001</v>
       </c>
     </row>
@@ -7780,9 +9073,15 @@
         </is>
       </c>
       <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
         <v>1181307</v>
       </c>
-      <c r="K225">
+      <c r="N225">
         <v>680965.0000000001</v>
       </c>
     </row>
@@ -7822,9 +9121,15 @@
         </is>
       </c>
       <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
         <v>579970.1466654321</v>
       </c>
-      <c r="K226">
+      <c r="N226">
         <v>437791</v>
       </c>
     </row>
@@ -7864,9 +9169,15 @@
         </is>
       </c>
       <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
         <v>579970.1466654321</v>
       </c>
-      <c r="K227">
+      <c r="N227">
         <v>437791</v>
       </c>
     </row>
@@ -7906,9 +9217,15 @@
         </is>
       </c>
       <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
         <v>817369</v>
       </c>
-      <c r="K228">
+      <c r="N228">
         <v>627550</v>
       </c>
     </row>
@@ -7948,9 +9265,15 @@
         </is>
       </c>
       <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
         <v>817369</v>
       </c>
-      <c r="K229">
+      <c r="N229">
         <v>627550</v>
       </c>
     </row>
@@ -7990,9 +9313,15 @@
         </is>
       </c>
       <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
         <v>214571</v>
       </c>
-      <c r="K230">
+      <c r="N230">
         <v>274663.0000000001</v>
       </c>
     </row>
@@ -8032,9 +9361,15 @@
         </is>
       </c>
       <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
         <v>214571</v>
       </c>
-      <c r="K231">
+      <c r="N231">
         <v>274663.0000000001</v>
       </c>
     </row>
@@ -8074,9 +9409,15 @@
         </is>
       </c>
       <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
         <v>30536.00420168067</v>
       </c>
-      <c r="K232">
+      <c r="N232">
         <v>170811</v>
       </c>
     </row>
@@ -8116,9 +9457,15 @@
         </is>
       </c>
       <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
         <v>30536.00420168067</v>
       </c>
-      <c r="K233">
+      <c r="N233">
         <v>170811</v>
       </c>
     </row>
@@ -8158,9 +9505,15 @@
         </is>
       </c>
       <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234">
         <v>62596.00000000001</v>
       </c>
-      <c r="K234">
+      <c r="N234">
         <v>501780</v>
       </c>
     </row>
@@ -8200,9 +9553,15 @@
         </is>
       </c>
       <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
         <v>62596.00000000001</v>
       </c>
-      <c r="K235">
+      <c r="N235">
         <v>501780</v>
       </c>
     </row>
@@ -8242,9 +9601,15 @@
         </is>
       </c>
       <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
         <v>156384</v>
       </c>
-      <c r="K236">
+      <c r="N236">
         <v>356203.9999999999</v>
       </c>
     </row>
@@ -8284,9 +9649,15 @@
         </is>
       </c>
       <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
         <v>156384</v>
       </c>
-      <c r="K237">
+      <c r="N237">
         <v>356203.9999999999</v>
       </c>
     </row>
@@ -8326,9 +9697,15 @@
         </is>
       </c>
       <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238">
         <v>235130.7241488512</v>
       </c>
-      <c r="K238">
+      <c r="N238">
         <v>640127.0000000001</v>
       </c>
     </row>
@@ -8368,9 +9745,15 @@
         </is>
       </c>
       <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239">
         <v>235130.7241488512</v>
       </c>
-      <c r="K239">
+      <c r="N239">
         <v>640127.0000000001</v>
       </c>
     </row>
@@ -8410,9 +9793,15 @@
         </is>
       </c>
       <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
         <v>115856.068</v>
       </c>
-      <c r="K240">
+      <c r="N240">
         <v>394147.213702481</v>
       </c>
     </row>
@@ -8452,9 +9841,15 @@
         </is>
       </c>
       <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
         <v>115856.068</v>
       </c>
-      <c r="K241">
+      <c r="N241">
         <v>394147.213702481</v>
       </c>
     </row>
@@ -8475,7 +9870,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8494,9 +9889,15 @@
         </is>
       </c>
       <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
         <v>105163.5893782173</v>
       </c>
-      <c r="K242">
+      <c r="N242">
         <v>223098.0000000001</v>
       </c>
     </row>
@@ -8517,7 +9918,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8536,9 +9937,15 @@
         </is>
       </c>
       <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
         <v>105163.5893782173</v>
       </c>
-      <c r="K243">
+      <c r="N243">
         <v>223098.0000000001</v>
       </c>
     </row>
@@ -8559,7 +9966,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -8578,9 +9985,15 @@
         </is>
       </c>
       <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244">
         <v>233776.9205341995</v>
       </c>
-      <c r="K244">
+      <c r="N244">
         <v>800244.862243237</v>
       </c>
     </row>
@@ -8601,7 +10014,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -8620,9 +10033,15 @@
         </is>
       </c>
       <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
         <v>233776.9205341995</v>
       </c>
-      <c r="K245">
+      <c r="N245">
         <v>800244.862243237</v>
       </c>
     </row>
@@ -8643,7 +10062,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -8662,9 +10081,15 @@
         </is>
       </c>
       <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
         <v>600455.7875803118</v>
       </c>
-      <c r="K246">
+      <c r="N246">
         <v>522744.7806640534</v>
       </c>
     </row>
@@ -8685,7 +10110,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -8704,9 +10129,15 @@
         </is>
       </c>
       <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247">
         <v>600455.7875803118</v>
       </c>
-      <c r="K247">
+      <c r="N247">
         <v>522744.7806640534</v>
       </c>
     </row>
@@ -8727,7 +10158,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -8746,9 +10177,15 @@
         </is>
       </c>
       <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
         <v>531341.3718806775</v>
       </c>
-      <c r="K248">
+      <c r="N248">
         <v>443175.6307078647</v>
       </c>
     </row>
@@ -8769,7 +10206,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -8788,9 +10225,15 @@
         </is>
       </c>
       <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
         <v>531341.3718806775</v>
       </c>
-      <c r="K249">
+      <c r="N249">
         <v>443175.6307078647</v>
       </c>
     </row>
@@ -8811,7 +10254,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -8830,9 +10273,15 @@
         </is>
       </c>
       <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
         <v>334435.1661</v>
       </c>
-      <c r="K250">
+      <c r="N250">
         <v>377681</v>
       </c>
     </row>
@@ -8853,7 +10302,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -8872,9 +10321,15 @@
         </is>
       </c>
       <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
         <v>334435.1661</v>
       </c>
-      <c r="K251">
+      <c r="N251">
         <v>377681</v>
       </c>
     </row>
@@ -8895,7 +10350,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -8914,9 +10369,15 @@
         </is>
       </c>
       <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
         <v>105345.3813728291</v>
       </c>
-      <c r="K252">
+      <c r="N252">
         <v>347117.1404960908</v>
       </c>
     </row>
@@ -8937,7 +10398,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -8956,9 +10417,15 @@
         </is>
       </c>
       <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
         <v>105345.3813728291</v>
       </c>
-      <c r="K253">
+      <c r="N253">
         <v>347117.1404960908</v>
       </c>
     </row>
@@ -8979,7 +10446,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -8998,9 +10465,15 @@
         </is>
       </c>
       <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
         <v>90500.48540000001</v>
       </c>
-      <c r="K254">
+      <c r="N254">
         <v>203635.7296855859</v>
       </c>
     </row>
@@ -9021,7 +10494,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9040,9 +10513,15 @@
         </is>
       </c>
       <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255">
         <v>90500.48540000001</v>
       </c>
-      <c r="K255">
+      <c r="N255">
         <v>203635.7296855859</v>
       </c>
     </row>
@@ -9063,7 +10542,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9082,9 +10561,15 @@
         </is>
       </c>
       <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256">
         <v>10040</v>
       </c>
-      <c r="K256">
+      <c r="N256">
         <v>162815.0000000001</v>
       </c>
     </row>
@@ -9105,7 +10590,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9124,9 +10609,15 @@
         </is>
       </c>
       <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
         <v>10040</v>
       </c>
-      <c r="K257">
+      <c r="N257">
         <v>162815.0000000001</v>
       </c>
     </row>
@@ -9166,9 +10657,15 @@
         </is>
       </c>
       <c r="J258">
-        <v>0</v>
-      </c>
-      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
         <v>203968.0067567567</v>
       </c>
     </row>
@@ -9210,7 +10707,13 @@
       <c r="J259">
         <v>0</v>
       </c>
-      <c r="K259">
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
         <v>203968.0067567567</v>
       </c>
     </row>
@@ -9250,9 +10753,15 @@
         </is>
       </c>
       <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
         <v>149521.6328902802</v>
       </c>
-      <c r="K260">
+      <c r="N260">
         <v>430072.2876649234</v>
       </c>
     </row>
@@ -9292,9 +10801,15 @@
         </is>
       </c>
       <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="M261">
         <v>149521.6328902802</v>
       </c>
-      <c r="K261">
+      <c r="N261">
         <v>430072.2876649234</v>
       </c>
     </row>
@@ -9334,9 +10849,15 @@
         </is>
       </c>
       <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
         <v>938124.682827242</v>
       </c>
-      <c r="K262">
+      <c r="N262">
         <v>830435</v>
       </c>
     </row>
@@ -9376,9 +10897,15 @@
         </is>
       </c>
       <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
         <v>938124.682827242</v>
       </c>
-      <c r="K263">
+      <c r="N263">
         <v>830435</v>
       </c>
     </row>
@@ -9418,9 +10945,15 @@
         </is>
       </c>
       <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
         <v>590914.3653989306</v>
       </c>
-      <c r="K264">
+      <c r="N264">
         <v>905456.9999999998</v>
       </c>
     </row>
@@ -9460,9 +10993,15 @@
         </is>
       </c>
       <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
         <v>590914.3653989306</v>
       </c>
-      <c r="K265">
+      <c r="N265">
         <v>905456.9999999998</v>
       </c>
     </row>
@@ -9502,9 +11041,15 @@
         </is>
       </c>
       <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>0</v>
+      </c>
+      <c r="M266">
         <v>385592.5588652157</v>
       </c>
-      <c r="K266">
+      <c r="N266">
         <v>395857.9999999999</v>
       </c>
     </row>
@@ -9544,9 +11089,15 @@
         </is>
       </c>
       <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267">
         <v>385592.5588652157</v>
       </c>
-      <c r="K267">
+      <c r="N267">
         <v>395857.9999999999</v>
       </c>
     </row>
@@ -9586,9 +11137,15 @@
         </is>
       </c>
       <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268">
         <v>89406.92896357566</v>
       </c>
-      <c r="K268">
+      <c r="N268">
         <v>664957.5864587885</v>
       </c>
     </row>
@@ -9628,9 +11185,15 @@
         </is>
       </c>
       <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269">
         <v>89406.92896357566</v>
       </c>
-      <c r="K269">
+      <c r="N269">
         <v>664957.5864587885</v>
       </c>
     </row>
@@ -9670,9 +11233,15 @@
         </is>
       </c>
       <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
         <v>676503.3420213063</v>
       </c>
-      <c r="K270">
+      <c r="N270">
         <v>539951.848459169</v>
       </c>
     </row>
@@ -9712,9 +11281,15 @@
         </is>
       </c>
       <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
         <v>676503.3420213063</v>
       </c>
-      <c r="K271">
+      <c r="N271">
         <v>539951.848459169</v>
       </c>
     </row>
@@ -9754,9 +11329,15 @@
         </is>
       </c>
       <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
         <v>1309599</v>
       </c>
-      <c r="K272">
+      <c r="N272">
         <v>764186.6399999999</v>
       </c>
     </row>
@@ -9796,9 +11377,15 @@
         </is>
       </c>
       <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
         <v>1309599</v>
       </c>
-      <c r="K273">
+      <c r="N273">
         <v>764186.6399999999</v>
       </c>
     </row>
@@ -9838,9 +11425,15 @@
         </is>
       </c>
       <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
         <v>662128</v>
       </c>
-      <c r="K274">
+      <c r="N274">
         <v>468215.01</v>
       </c>
     </row>
@@ -9880,9 +11473,15 @@
         </is>
       </c>
       <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
         <v>662128</v>
       </c>
-      <c r="K275">
+      <c r="N275">
         <v>468215.01</v>
       </c>
     </row>
@@ -9922,9 +11521,15 @@
         </is>
       </c>
       <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
         <v>97288.52343308111</v>
       </c>
-      <c r="K276">
+      <c r="N276">
         <v>457992.6800000002</v>
       </c>
     </row>
@@ -9964,9 +11569,15 @@
         </is>
       </c>
       <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
         <v>97288.52343308111</v>
       </c>
-      <c r="K277">
+      <c r="N277">
         <v>457992.6800000002</v>
       </c>
     </row>
@@ -10006,9 +11617,15 @@
         </is>
       </c>
       <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
         <v>82158.61597752468</v>
       </c>
-      <c r="K278">
+      <c r="N278">
         <v>208635.1100000002</v>
       </c>
     </row>
@@ -10048,9 +11665,15 @@
         </is>
       </c>
       <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
         <v>82158.61597752468</v>
       </c>
-      <c r="K279">
+      <c r="N279">
         <v>208635.1100000002</v>
       </c>
     </row>
@@ -10090,9 +11713,15 @@
         </is>
       </c>
       <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>0</v>
+      </c>
+      <c r="M280">
         <v>54797.43787213185</v>
       </c>
-      <c r="K280">
+      <c r="N280">
         <v>191725.02</v>
       </c>
     </row>
@@ -10132,9 +11761,15 @@
         </is>
       </c>
       <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
         <v>54797.43787213185</v>
       </c>
-      <c r="K281">
+      <c r="N281">
         <v>191725.02</v>
       </c>
     </row>
@@ -10174,9 +11809,15 @@
         </is>
       </c>
       <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
         <v>74112.09621734613</v>
       </c>
-      <c r="K282">
+      <c r="N282">
         <v>314010.15</v>
       </c>
     </row>
@@ -10216,9 +11857,15 @@
         </is>
       </c>
       <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
         <v>74112.09621734613</v>
       </c>
-      <c r="K283">
+      <c r="N283">
         <v>314010.15</v>
       </c>
     </row>
@@ -10258,9 +11905,15 @@
         </is>
       </c>
       <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284">
         <v>187163</v>
       </c>
-      <c r="K284">
+      <c r="N284">
         <v>422040</v>
       </c>
     </row>
@@ -10300,9 +11953,15 @@
         </is>
       </c>
       <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
         <v>187163</v>
       </c>
-      <c r="K285">
+      <c r="N285">
         <v>422040</v>
       </c>
     </row>
@@ -10342,9 +12001,15 @@
         </is>
       </c>
       <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
         <v>351689</v>
       </c>
-      <c r="K286">
+      <c r="N286">
         <v>669650</v>
       </c>
     </row>
@@ -10384,9 +12049,15 @@
         </is>
       </c>
       <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
         <v>351689</v>
       </c>
-      <c r="K287">
+      <c r="N287">
         <v>669650</v>
       </c>
     </row>
@@ -10426,9 +12097,15 @@
         </is>
       </c>
       <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
         <v>328495.6625937843</v>
       </c>
-      <c r="K288">
+      <c r="N288">
         <v>377396.0000000001</v>
       </c>
     </row>
@@ -10468,9 +12145,15 @@
         </is>
       </c>
       <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
         <v>328495.6625937843</v>
       </c>
-      <c r="K289">
+      <c r="N289">
         <v>377396.0000000001</v>
       </c>
     </row>
@@ -10491,10 +12174,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J290">
+      <c r="M290">
         <v>45412</v>
       </c>
-      <c r="K290">
+      <c r="N290">
         <v>75695</v>
       </c>
     </row>
@@ -10515,10 +12198,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J291">
+      <c r="M291">
         <v>91069</v>
       </c>
-      <c r="K291">
+      <c r="N291">
         <v>70000</v>
       </c>
     </row>
@@ -10539,10 +12222,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J292">
+      <c r="M292">
         <v>38000</v>
       </c>
-      <c r="K292">
+      <c r="N292">
         <v>70000</v>
       </c>
     </row>
@@ -10563,10 +12246,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J293">
+      <c r="M293">
         <v>18000</v>
       </c>
-      <c r="K293">
+      <c r="N293">
         <v>138018</v>
       </c>
     </row>
@@ -10587,10 +12270,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J294">
+      <c r="M294">
         <v>58600</v>
       </c>
-      <c r="K294">
+      <c r="N294">
         <v>49501</v>
       </c>
     </row>
@@ -10611,10 +12294,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J295">
+      <c r="M295">
         <v>59260</v>
       </c>
-      <c r="K295">
+      <c r="N295">
         <v>56920</v>
       </c>
     </row>
@@ -10635,10 +12318,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J296">
+      <c r="M296">
         <v>105000</v>
       </c>
-      <c r="K296">
+      <c r="N296">
         <v>37472</v>
       </c>
     </row>
@@ -10659,10 +12342,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J297">
+      <c r="M297">
         <v>80500</v>
       </c>
-      <c r="K297">
+      <c r="N297">
         <v>9206</v>
       </c>
     </row>
@@ -10683,10 +12366,10 @@
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="J298">
+      <c r="M298">
         <v>81500</v>
       </c>
-      <c r="K298">
+      <c r="N298">
         <v>19858</v>
       </c>
     </row>

--- a/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
+++ b/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N298"/>
+  <dimension ref="A1:N299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,6 +454,9 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>1793477</v>
+      </c>
       <c r="M2">
         <v>16354</v>
       </c>
@@ -486,6 +489,9 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>2234000</v>
+      </c>
       <c r="M3">
         <v>32474</v>
       </c>
@@ -518,6 +524,9 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>7972841</v>
+      </c>
       <c r="M4">
         <v>6006</v>
       </c>
@@ -550,6 +559,9 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>9103410</v>
+      </c>
       <c r="M5">
         <v>325</v>
       </c>
@@ -582,6 +594,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6">
+        <v>4800925</v>
+      </c>
       <c r="M6">
         <v>12350</v>
       </c>
@@ -614,6 +629,9 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="K7">
+        <v>3274607</v>
+      </c>
       <c r="M7">
         <v>1456</v>
       </c>
@@ -646,6 +664,9 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8">
+        <v>3486821</v>
+      </c>
       <c r="M8">
         <v>2964</v>
       </c>
@@ -678,6 +699,9 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>3251391</v>
+      </c>
       <c r="M9">
         <v>16081</v>
       </c>
@@ -718,6 +742,9 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>3220359</v>
+      </c>
       <c r="M10">
         <v>45412</v>
       </c>
@@ -758,6 +785,9 @@
       <c r="J11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>3245014</v>
+      </c>
       <c r="M11">
         <v>91069</v>
       </c>
@@ -798,6 +828,9 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>3007880</v>
+      </c>
       <c r="M12">
         <v>38000</v>
       </c>
@@ -830,6 +863,9 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13">
+        <v>3278881</v>
+      </c>
       <c r="M13">
         <v>18000</v>
       </c>
@@ -870,6 +906,9 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14">
+        <v>3135246</v>
+      </c>
       <c r="M14">
         <v>58600</v>
       </c>
@@ -910,6 +949,9 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15">
+        <v>4158974</v>
+      </c>
       <c r="M15">
         <v>59260</v>
       </c>
@@ -950,6 +992,9 @@
       <c r="J16">
         <v>0</v>
       </c>
+      <c r="K16">
+        <v>2859264</v>
+      </c>
       <c r="M16">
         <v>105000</v>
       </c>
@@ -990,6 +1035,9 @@
       <c r="J17">
         <v>0</v>
       </c>
+      <c r="K17">
+        <v>1995414</v>
+      </c>
       <c r="M17">
         <v>80500</v>
       </c>
@@ -1030,6 +1078,9 @@
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18">
+        <v>2910449</v>
+      </c>
       <c r="M18">
         <v>81500</v>
       </c>
@@ -1062,6 +1113,9 @@
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>4897121</v>
+      </c>
       <c r="M19">
         <v>71020</v>
       </c>
@@ -1094,6 +1148,9 @@
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20">
+        <v>5090972</v>
+      </c>
       <c r="M20">
         <v>94580</v>
       </c>
@@ -1126,6 +1183,9 @@
       <c r="J21">
         <v>0</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="M21">
         <v>61000</v>
       </c>
@@ -3700,7 +3760,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>fence count</t>
+          <t>AUC survey - Clemens</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3748,7 +3808,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>fence count</t>
+          <t>AUC survey - Clemens</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3773,15 +3833,15 @@
         <v>2100000</v>
       </c>
       <c r="M85">
-        <v>233776.9205341995</v>
+        <v>235816.9205341995</v>
       </c>
       <c r="N85">
-        <v>800244.862243237</v>
+        <v>820144.862243237</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3789,10 +3849,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>17700</v>
+        <v>19900</v>
       </c>
       <c r="E86">
-        <v>3912</v>
+        <v>2040</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3818,18 +3878,18 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2300000</v>
+        <v>2100000</v>
       </c>
       <c r="M86">
-        <v>600455.7875803118</v>
+        <v>235816.9205341995</v>
       </c>
       <c r="N86">
-        <v>522744.7806640534</v>
+        <v>820144.862243237</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3837,10 +3897,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>3300</v>
+        <v>17700</v>
       </c>
       <c r="E87">
-        <v>237</v>
+        <v>3912</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3857,22 +3917,27 @@
           <t>MLE run timing model</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>scale sampling</t>
+        </is>
+      </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>783000</v>
+        <v>2300000</v>
       </c>
       <c r="M87">
-        <v>531341.3718806775</v>
+        <v>600455.7875803118</v>
       </c>
       <c r="N87">
-        <v>443175.6307078647</v>
+        <v>522744.7806640534</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3880,10 +3945,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3904,18 +3969,18 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>755300</v>
+        <v>783000</v>
       </c>
       <c r="M88">
-        <v>334435.1661</v>
+        <v>531341.3718806775</v>
       </c>
       <c r="N88">
-        <v>377681</v>
+        <v>443175.6307078647</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3923,10 +3988,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="E89">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3947,18 +4012,18 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>97750</v>
+        <v>755300</v>
       </c>
       <c r="M89">
-        <v>105345.3813728291</v>
+        <v>334435.1661</v>
       </c>
       <c r="N89">
-        <v>347117.1404960908</v>
+        <v>377681</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3966,10 +4031,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="E90">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3990,18 +4055,18 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1558240</v>
+        <v>97750</v>
       </c>
       <c r="M90">
-        <v>90500.48540000001</v>
+        <v>105345.3813728291</v>
       </c>
       <c r="N90">
-        <v>203635.7296855859</v>
+        <v>347117.1404960908</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4009,14 +4074,14 @@
         </is>
       </c>
       <c r="C91">
-        <v>12500</v>
+        <v>3600</v>
       </c>
       <c r="E91">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>AUC survey - Clemens</t>
+          <t>fence count</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4029,27 +4094,22 @@
           <t>MLE run timing model</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>scale sampling</t>
-        </is>
-      </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1558240</v>
       </c>
       <c r="M91">
-        <v>10040</v>
+        <v>90500.48540000001</v>
       </c>
       <c r="N91">
-        <v>162815.0000000001</v>
+        <v>203635.7296855859</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4057,10 +4117,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4074,7 +4134,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>escapement</t>
+          <t>MLE run timing model</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4083,21 +4143,21 @@
         </is>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>10040</v>
       </c>
       <c r="N92">
-        <v>203968.0067567567</v>
+        <v>162815.0000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4105,7 +4165,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>30000</v>
+        <v>13100</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4117,6 +4180,11 @@
           <t>commercial + FN catch records + creel survey</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>escapement</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>scale sampling</t>
@@ -4129,15 +4197,15 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>149521.6328902802</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>430072.2876649234</v>
+        <v>203968.0067567567</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4169,15 +4237,15 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>938124.682827242</v>
+        <v>149521.6328902802</v>
       </c>
       <c r="N94">
-        <v>830435</v>
+        <v>430072.2876649234</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4185,10 +4253,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>20423</v>
-      </c>
-      <c r="E95">
-        <v>6965</v>
+        <v>30000</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4200,11 +4265,6 @@
           <t>commercial + FN catch records + creel survey</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>DNA attribution</t>
-        </is>
-      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>scale sampling</t>
@@ -4217,15 +4277,15 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>590914.3653989306</v>
+        <v>938124.682827242</v>
       </c>
       <c r="N95">
-        <v>905456.9999999998</v>
+        <v>830435</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4233,10 +4293,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>17133</v>
+        <v>20423</v>
       </c>
       <c r="E96">
-        <v>5942</v>
+        <v>6965</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4265,15 +4325,15 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>385592.5588652157</v>
+        <v>590914.3653989306</v>
       </c>
       <c r="N96">
-        <v>395857.9999999999</v>
+        <v>905456.9999999998</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4281,10 +4341,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>12500</v>
+        <v>17133</v>
       </c>
       <c r="E97">
-        <v>1125</v>
+        <v>5942</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4313,15 +4373,15 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>89406.92896357566</v>
+        <v>385592.5588652157</v>
       </c>
       <c r="N97">
-        <v>664957.5864587885</v>
+        <v>395857.9999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4329,10 +4389,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>11837</v>
+        <v>12500</v>
       </c>
       <c r="E98">
-        <v>21656</v>
+        <v>1125</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4361,15 +4421,15 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>676503.3420213063</v>
+        <v>89406.92896357566</v>
       </c>
       <c r="N98">
-        <v>539951.848459169</v>
+        <v>664957.5864587885</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4377,10 +4437,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>6400</v>
+        <v>11837</v>
       </c>
       <c r="E99">
-        <v>5192</v>
+        <v>21656</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4409,15 +4469,15 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>1309599</v>
+        <v>676503.3420213063</v>
       </c>
       <c r="N99">
-        <v>764186.6399999999</v>
+        <v>539951.848459169</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4425,10 +4485,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>10700</v>
+        <v>6400</v>
       </c>
       <c r="E100">
-        <v>23111</v>
+        <v>5192</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4457,15 +4517,15 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>662128</v>
+        <v>1309599</v>
       </c>
       <c r="N100">
-        <v>468215.01</v>
+        <v>764186.6399999999</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4473,10 +4533,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>22704</v>
+        <v>10700</v>
       </c>
       <c r="E101">
-        <v>3217</v>
+        <v>23111</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4505,15 +4565,15 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>97288.52343308111</v>
+        <v>662128</v>
       </c>
       <c r="N101">
-        <v>457992.6800000002</v>
+        <v>468215.01</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4521,10 +4581,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>12203</v>
+        <v>22704</v>
       </c>
       <c r="E102">
-        <v>626</v>
+        <v>3217</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4553,15 +4613,15 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>82158.61597752468</v>
+        <v>97288.52343308111</v>
       </c>
       <c r="N102">
-        <v>208635.1100000002</v>
+        <v>457992.6800000002</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4569,10 +4629,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>13549</v>
+        <v>12203</v>
       </c>
       <c r="E103">
-        <v>154</v>
+        <v>626</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4601,15 +4661,15 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>54797.43787213185</v>
+        <v>82158.61597752468</v>
       </c>
       <c r="N103">
-        <v>191725.02</v>
+        <v>208635.1100000002</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4617,10 +4677,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>4589</v>
+        <v>13549</v>
       </c>
       <c r="E104">
-        <v>443</v>
+        <v>154</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4649,15 +4709,15 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>74112.09621734613</v>
+        <v>54797.43787213185</v>
       </c>
       <c r="N104">
-        <v>314010.15</v>
+        <v>191725.02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4665,10 +4725,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>14520</v>
+        <v>4589</v>
       </c>
       <c r="E105">
-        <v>4359</v>
+        <v>443</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4697,15 +4757,15 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>187163</v>
+        <v>74112.09621734613</v>
       </c>
       <c r="N105">
-        <v>422040</v>
+        <v>314010.15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4713,10 +4773,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>18646</v>
+        <v>14520</v>
       </c>
       <c r="E106">
-        <v>7731</v>
+        <v>4359</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4745,15 +4805,15 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>351689</v>
+        <v>187163</v>
       </c>
       <c r="N106">
-        <v>669650</v>
+        <v>422040</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4761,10 +4821,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>13113</v>
+        <v>18646</v>
       </c>
       <c r="E107">
-        <v>8196</v>
+        <v>7731</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4793,45 +4853,63 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>328495.6625937843</v>
+        <v>351689</v>
       </c>
       <c r="N107">
-        <v>377396.0000000001</v>
+        <v>669650</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1926</v>
+        <v>2023</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>HUC</t>
         </is>
       </c>
       <c r="C108">
-        <v>10695</v>
+        <v>13113</v>
+      </c>
+      <c r="E108">
+        <v>8196</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>manual transport count</t>
+          <t>AUC survey - Clemens</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>commercial + FN catch records + creel survey</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>DNA attribution</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>scale sampling</t>
         </is>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
-      <c r="L108">
-        <v>2002000</v>
+      <c r="K108">
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>45412</v>
+        <v>328495.6625937843</v>
       </c>
       <c r="N108">
-        <v>75695</v>
+        <v>377396.0000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4839,29 +4917,29 @@
         </is>
       </c>
       <c r="C109">
-        <v>3018</v>
+        <v>10695</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>manual transport count</t>
         </is>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>1505000</v>
+        <v>2002000</v>
       </c>
       <c r="M109">
-        <v>18000</v>
+        <v>45412</v>
       </c>
       <c r="N109">
-        <v>138018</v>
+        <v>75695</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4869,7 +4947,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>9501</v>
+        <v>3018</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4880,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1505000</v>
       </c>
       <c r="M110">
-        <v>58600</v>
+        <v>18000</v>
       </c>
       <c r="N110">
-        <v>49501</v>
+        <v>138018</v>
       </c>
     </row>
     <row r="111">
@@ -4895,17 +4973,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>9501</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J111">
@@ -4923,19 +4999,21 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>6920</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J112">
@@ -4945,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>59260</v>
+        <v>58600</v>
       </c>
       <c r="N112">
-        <v>56920</v>
+        <v>49501</v>
       </c>
     </row>
     <row r="113">
@@ -4957,17 +5035,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>6920</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J113">
@@ -4985,32 +5061,34 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>2472</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="L114">
-        <v>2002000</v>
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>105000</v>
+        <v>59260</v>
       </c>
       <c r="N114">
-        <v>37472</v>
+        <v>56920</v>
       </c>
     </row>
     <row r="115">
@@ -5019,24 +5097,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>2472</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>1505000</v>
+        <v>2002000</v>
       </c>
       <c r="M115">
         <v>105000</v>
@@ -5047,32 +5123,34 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C116">
-        <v>1706</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>1505000</v>
       </c>
       <c r="M116">
-        <v>80500</v>
+        <v>105000</v>
       </c>
       <c r="N116">
-        <v>9206</v>
+        <v>37472</v>
       </c>
     </row>
     <row r="117">
@@ -5081,17 +5159,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>1706</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J117">
@@ -5109,32 +5185,34 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C118">
-        <v>4858</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>2002000</v>
       </c>
       <c r="M118">
-        <v>81500</v>
+        <v>80500</v>
       </c>
       <c r="N118">
-        <v>19858</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="119">
@@ -5143,17 +5221,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>4858</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J119">
@@ -5171,19 +5247,21 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C120">
-        <v>5953</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J120">
@@ -5193,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>71020</v>
+        <v>81500</v>
       </c>
       <c r="N120">
-        <v>50953</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="121">
@@ -5205,17 +5283,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>5953</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J121">
@@ -5233,19 +5309,21 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C122">
-        <v>12206</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J122">
@@ -5255,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>94580</v>
+        <v>71020</v>
       </c>
       <c r="N122">
-        <v>14206</v>
+        <v>50953</v>
       </c>
     </row>
     <row r="123">
@@ -5267,17 +5345,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>12206</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J123">
@@ -5295,19 +5371,21 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C124">
-        <v>7365</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J124">
@@ -5317,15 +5395,15 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>61000</v>
+        <v>94580</v>
       </c>
       <c r="N124">
-        <v>45365</v>
+        <v>14206</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5333,7 +5411,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>5894</v>
+        <v>7365</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5347,10 +5425,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>47300</v>
+        <v>61000</v>
       </c>
       <c r="N125">
-        <v>15894</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="126">
@@ -5359,17 +5437,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>5894</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J126">
@@ -5387,19 +5463,21 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>3119</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J127">
@@ -5409,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>51000</v>
+        <v>47300</v>
       </c>
       <c r="N127">
-        <v>17119</v>
+        <v>15894</v>
       </c>
     </row>
     <row r="128">
@@ -5421,17 +5499,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>3119</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J128">
@@ -5449,19 +5525,21 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>2936</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J129">
@@ -5471,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>26580</v>
+        <v>51000</v>
       </c>
       <c r="N129">
-        <v>62936</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="130">
@@ -5483,17 +5561,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>2936</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J130">
@@ -5511,19 +5587,21 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>14625</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J131">
@@ -5533,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>25000</v>
+        <v>26580</v>
       </c>
       <c r="N131">
-        <v>16625</v>
+        <v>62936</v>
       </c>
     </row>
     <row r="132">
@@ -5545,17 +5623,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>14625</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J132">
@@ -5573,19 +5649,21 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>15823</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J133">
@@ -5595,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>29200</v>
+        <v>25000</v>
       </c>
       <c r="N133">
-        <v>22823</v>
+        <v>16625</v>
       </c>
     </row>
     <row r="134">
@@ -5607,17 +5685,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>15823</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J134">
@@ -5635,19 +5711,21 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>5421</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J135">
@@ -5657,15 +5735,15 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>38860</v>
+        <v>29200</v>
       </c>
       <c r="N135">
-        <v>10421</v>
+        <v>22823</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5673,7 +5751,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>4537</v>
+        <v>5421</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5687,15 +5765,15 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>14600</v>
+        <v>38860</v>
       </c>
       <c r="N136">
-        <v>9537</v>
+        <v>10421</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5703,7 +5781,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>26245</v>
+        <v>4537</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5717,15 +5795,15 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>11800</v>
+        <v>14600</v>
       </c>
       <c r="N137">
-        <v>40245</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5733,7 +5811,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>5986</v>
+        <v>26245</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5747,15 +5825,15 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>13980</v>
+        <v>11800</v>
       </c>
       <c r="N138">
-        <v>19986</v>
+        <v>40245</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5763,7 +5841,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>5900</v>
+        <v>5986</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5777,15 +5855,15 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>5440</v>
+        <v>13980</v>
       </c>
       <c r="N139">
-        <v>12900</v>
+        <v>19986</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5793,7 +5871,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>4167</v>
+        <v>5900</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5807,15 +5885,15 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>9560</v>
+        <v>5440</v>
       </c>
       <c r="N140">
-        <v>11167</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5823,7 +5901,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>50418</v>
+        <v>4167</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5837,15 +5915,15 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>35720</v>
+        <v>9560</v>
       </c>
       <c r="N141">
-        <v>80418</v>
+        <v>11167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5853,7 +5931,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>20000</v>
+        <v>50418</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5867,10 +5945,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>55190</v>
+        <v>35720</v>
       </c>
       <c r="N142">
-        <v>44000</v>
+        <v>80418</v>
       </c>
     </row>
     <row r="143">
@@ -5879,11 +5957,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C143">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5905,15 +5983,15 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C144">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -5927,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>76018</v>
+        <v>55190</v>
       </c>
       <c r="N144">
-        <v>89000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="145">
@@ -5939,11 +6017,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C145">
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -5965,15 +6043,15 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C146">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5987,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>50094</v>
+        <v>76018</v>
       </c>
       <c r="N146">
-        <v>36000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="147">
@@ -5999,11 +6077,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C147">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6025,15 +6103,15 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C148">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6047,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>76328</v>
+        <v>50094</v>
       </c>
       <c r="N148">
-        <v>64000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="149">
@@ -6059,11 +6137,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C149">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6085,11 +6163,11 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C150">
@@ -6107,10 +6185,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>38405</v>
+        <v>76328</v>
       </c>
       <c r="N150">
-        <v>65000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="151">
@@ -6119,11 +6197,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C151">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6145,11 +6223,11 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C152">
@@ -6167,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>28714</v>
+        <v>38405</v>
       </c>
       <c r="N152">
-        <v>39000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="153">
@@ -6179,11 +6257,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C153">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6205,15 +6283,15 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C154">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6227,10 +6305,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>8934</v>
+        <v>28714</v>
       </c>
       <c r="N154">
-        <v>17000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="155">
@@ -6239,7 +6317,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C155">
@@ -6265,15 +6343,15 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C156">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6287,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>11749</v>
+        <v>8934</v>
       </c>
       <c r="N156">
-        <v>147000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="157">
@@ -6299,11 +6377,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C157">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6325,15 +6403,15 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C158">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6347,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>8296</v>
+        <v>11749</v>
       </c>
       <c r="N158">
-        <v>54000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="159">
@@ -6359,7 +6437,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C159">
@@ -6385,11 +6463,11 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C160">
@@ -6407,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>6966</v>
+        <v>8296</v>
       </c>
       <c r="N160">
         <v>54000</v>
@@ -6419,7 +6497,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C161">
@@ -6445,11 +6523,11 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C162">
@@ -6467,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>9144</v>
+        <v>6966</v>
       </c>
       <c r="N162">
-        <v>50000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="163">
@@ -6479,7 +6557,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C163">
@@ -6505,15 +6583,15 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C164">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6527,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>21864</v>
+        <v>9144</v>
       </c>
       <c r="N164">
         <v>50000</v>
@@ -6539,7 +6617,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C165">
@@ -6565,15 +6643,15 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C166">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6587,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>16299</v>
+        <v>21864</v>
       </c>
       <c r="N166">
-        <v>58000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="167">
@@ -6599,11 +6677,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C167">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6625,15 +6703,15 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C168">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6647,10 +6725,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>11065</v>
+        <v>16299</v>
       </c>
       <c r="N168">
-        <v>50000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="169">
@@ -6659,11 +6737,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C169">
-        <v>26000</v>
+        <v>6000</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6685,15 +6763,15 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C170">
-        <v>70000</v>
+        <v>26000</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6707,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>11218</v>
+        <v>11065</v>
       </c>
       <c r="N170">
-        <v>113000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="171">
@@ -6719,11 +6797,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C171">
-        <v>13000</v>
+        <v>70000</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -6745,15 +6823,15 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C172">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6767,10 +6845,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>17657</v>
+        <v>11218</v>
       </c>
       <c r="N172">
-        <v>56000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="173">
@@ -6779,11 +6857,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C173">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -6805,15 +6883,15 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C174">
-        <v>68000</v>
+        <v>15000</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -6827,10 +6905,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>29151</v>
+        <v>17657</v>
       </c>
       <c r="N174">
-        <v>176000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="175">
@@ -6839,11 +6917,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C175">
-        <v>28000</v>
+        <v>68000</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6865,15 +6943,15 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C176">
-        <v>33500</v>
+        <v>28000</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6887,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>31022</v>
+        <v>29151</v>
       </c>
       <c r="N176">
-        <v>135500</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="177">
@@ -6899,11 +6977,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C177">
-        <v>22000</v>
+        <v>33500</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -6925,15 +7003,15 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C178">
-        <v>78600</v>
+        <v>22000</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6947,10 +7025,10 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>28828</v>
+        <v>31022</v>
       </c>
       <c r="N178">
-        <v>137600</v>
+        <v>135500</v>
       </c>
     </row>
     <row r="179">
@@ -6959,11 +7037,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C179">
-        <v>29000</v>
+        <v>78600</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -6985,15 +7063,15 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C180">
-        <v>72900</v>
+        <v>29000</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7007,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>56787</v>
+        <v>28828</v>
       </c>
       <c r="N180">
-        <v>114900</v>
+        <v>137600</v>
       </c>
     </row>
     <row r="181">
@@ -7019,11 +7097,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C181">
-        <v>24000</v>
+        <v>72900</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7045,45 +7123,32 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C182">
-        <v>15100</v>
-      </c>
-      <c r="E182">
-        <v>14582</v>
+        <v>24000</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>fishery officer</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>commercial catch records</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>assumed run timing</t>
-        </is>
-      </c>
       <c r="J182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182">
         <v>0</v>
       </c>
       <c r="M182">
-        <v>89092</v>
+        <v>56787</v>
       </c>
       <c r="N182">
-        <v>42100</v>
+        <v>114900</v>
       </c>
     </row>
     <row r="183">
@@ -7092,14 +7157,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C183">
-        <v>18000</v>
+        <v>15100</v>
       </c>
       <c r="E183">
-        <v>23692</v>
+        <v>14582</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7117,7 +7182,7 @@
         </is>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -7131,18 +7196,18 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C184">
-        <v>39200</v>
+        <v>18000</v>
       </c>
       <c r="E184">
-        <v>13610</v>
+        <v>23692</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7160,16 +7225,16 @@
         </is>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184">
         <v>0</v>
       </c>
       <c r="M184">
-        <v>51875</v>
+        <v>89092</v>
       </c>
       <c r="N184">
-        <v>71700</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="185">
@@ -7178,14 +7243,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C185">
-        <v>25000</v>
+        <v>39200</v>
       </c>
       <c r="E185">
-        <v>8665</v>
+        <v>13610</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7203,7 +7268,7 @@
         </is>
       </c>
       <c r="J185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -7217,18 +7282,18 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C186">
-        <v>93300</v>
+        <v>25000</v>
       </c>
       <c r="E186">
-        <v>83723</v>
+        <v>8665</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7246,16 +7311,16 @@
         </is>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <v>0</v>
       </c>
       <c r="M186">
-        <v>225718</v>
+        <v>51875</v>
       </c>
       <c r="N186">
-        <v>139400</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="187">
@@ -7264,14 +7329,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C187">
-        <v>42600</v>
+        <v>93300</v>
       </c>
       <c r="E187">
-        <v>28930</v>
+        <v>83723</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -7289,7 +7354,7 @@
         </is>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -7303,18 +7368,18 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C188">
-        <v>216100</v>
+        <v>42600</v>
       </c>
       <c r="E188">
-        <v>165390</v>
+        <v>28930</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -7332,16 +7397,16 @@
         </is>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L188">
         <v>0</v>
       </c>
       <c r="M188">
-        <v>451615</v>
+        <v>225718</v>
       </c>
       <c r="N188">
-        <v>301700</v>
+        <v>139400</v>
       </c>
     </row>
     <row r="189">
@@ -7350,14 +7415,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C189">
-        <v>45600</v>
+        <v>216100</v>
       </c>
       <c r="E189">
-        <v>39337</v>
+        <v>165390</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -7375,7 +7440,7 @@
         </is>
       </c>
       <c r="J189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -7389,18 +7454,18 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C190">
-        <v>56300</v>
+        <v>45600</v>
       </c>
       <c r="E190">
-        <v>109793</v>
+        <v>39337</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -7424,10 +7489,10 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>427790</v>
+        <v>451615</v>
       </c>
       <c r="N190">
-        <v>98100</v>
+        <v>301700</v>
       </c>
     </row>
     <row r="191">
@@ -7436,14 +7501,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C191">
-        <v>35800</v>
+        <v>56300</v>
       </c>
       <c r="E191">
-        <v>91846</v>
+        <v>109793</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -7475,18 +7540,18 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C192">
-        <v>138100</v>
+        <v>35800</v>
       </c>
       <c r="E192">
-        <v>129499</v>
+        <v>91846</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7510,10 +7575,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>440977</v>
+        <v>427790</v>
       </c>
       <c r="N192">
-        <v>195600</v>
+        <v>98100</v>
       </c>
     </row>
     <row r="193">
@@ -7522,14 +7587,14 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C193">
-        <v>47500</v>
+        <v>138100</v>
       </c>
       <c r="E193">
-        <v>78617</v>
+        <v>129499</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7561,18 +7626,18 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C194">
-        <v>100600</v>
+        <v>47500</v>
       </c>
       <c r="E194">
-        <v>470815</v>
+        <v>78617</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -7596,10 +7661,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>1408490</v>
+        <v>440977</v>
       </c>
       <c r="N194">
-        <v>151800</v>
+        <v>195600</v>
       </c>
     </row>
     <row r="195">
@@ -7608,14 +7673,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C195">
-        <v>47700</v>
+        <v>100600</v>
       </c>
       <c r="E195">
-        <v>203610</v>
+        <v>470815</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -7647,22 +7712,22 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C196">
-        <v>212200</v>
+        <v>47700</v>
       </c>
       <c r="E196">
-        <v>794304.3566749521</v>
+        <v>203610</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>resistivity counter</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7675,22 +7740,17 @@
           <t>assumed run timing</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>scale sampling</t>
-        </is>
-      </c>
       <c r="J196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L196">
         <v>0</v>
       </c>
       <c r="M196">
-        <v>1122813.89493761</v>
+        <v>1408490</v>
       </c>
       <c r="N196">
-        <v>297800</v>
+        <v>151800</v>
       </c>
     </row>
     <row r="197">
@@ -7699,14 +7759,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C197">
-        <v>80800</v>
+        <v>212200</v>
       </c>
       <c r="E197">
-        <v>302449.5382626585</v>
+        <v>794304.3566749521</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -7729,7 +7789,7 @@
         </is>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -7743,18 +7803,18 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C198">
-        <v>114400</v>
+        <v>80800</v>
       </c>
       <c r="E198">
-        <v>145531.0318997159</v>
+        <v>302449.5382626585</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -7777,16 +7837,16 @@
         </is>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198">
         <v>0</v>
       </c>
       <c r="M198">
-        <v>197067.6970766333</v>
+        <v>1122813.89493761</v>
       </c>
       <c r="N198">
-        <v>158900</v>
+        <v>297800</v>
       </c>
     </row>
     <row r="199">
@@ -7795,14 +7855,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C199">
-        <v>37500</v>
+        <v>114400</v>
       </c>
       <c r="E199">
-        <v>47704.66517691737</v>
+        <v>145531.0318997159</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -7825,7 +7885,7 @@
         </is>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -7839,18 +7899,18 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C200">
-        <v>263995</v>
+        <v>37500</v>
       </c>
       <c r="E200">
-        <v>540963.2816986635</v>
+        <v>47704.66517691737</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -7873,16 +7933,16 @@
         </is>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200">
         <v>0</v>
       </c>
       <c r="M200">
-        <v>821100.0024423746</v>
+        <v>197067.6970766333</v>
       </c>
       <c r="N200">
-        <v>360441</v>
+        <v>158900</v>
       </c>
     </row>
     <row r="201">
@@ -7891,14 +7951,14 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C201">
-        <v>76446</v>
+        <v>263995</v>
       </c>
       <c r="E201">
-        <v>156648.7207437111</v>
+        <v>540963.2816986635</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -7921,7 +7981,7 @@
         </is>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -7935,18 +7995,18 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C202">
-        <v>256516</v>
+        <v>76446</v>
       </c>
       <c r="E202">
-        <v>421856.2559109447</v>
+        <v>156648.7207437111</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -7955,7 +8015,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>commercial + FN catch records</t>
+          <t>commercial catch records</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -7969,16 +8029,16 @@
         </is>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202">
         <v>0</v>
       </c>
       <c r="M202">
-        <v>695952.2532801195</v>
+        <v>821100.0024423746</v>
       </c>
       <c r="N202">
-        <v>415212</v>
+        <v>360441</v>
       </c>
     </row>
     <row r="203">
@@ -7987,14 +8047,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C203">
-        <v>137990</v>
+        <v>256516</v>
       </c>
       <c r="E203">
-        <v>226932.9973691749</v>
+        <v>421856.2559109447</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8017,7 +8077,7 @@
         </is>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -8031,18 +8091,18 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C204">
-        <v>213538</v>
+        <v>137990</v>
       </c>
       <c r="E204">
-        <v>557539.3886574621</v>
+        <v>226932.9973691749</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8065,16 +8125,16 @@
         </is>
       </c>
       <c r="J204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204">
         <v>0</v>
       </c>
       <c r="M204">
-        <v>1038876.317981237</v>
+        <v>695952.2532801195</v>
       </c>
       <c r="N204">
-        <v>410789</v>
+        <v>415212</v>
       </c>
     </row>
     <row r="205">
@@ -8083,14 +8143,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C205">
-        <v>139251</v>
+        <v>213538</v>
       </c>
       <c r="E205">
-        <v>363578.929323775</v>
+        <v>557539.3886574621</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8113,7 +8173,7 @@
         </is>
       </c>
       <c r="J205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -8127,18 +8187,18 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C206">
-        <v>179420</v>
+        <v>139251</v>
       </c>
       <c r="E206">
-        <v>185085.6637001739</v>
+        <v>363578.929323775</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8161,16 +8221,16 @@
         </is>
       </c>
       <c r="J206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206">
         <v>0</v>
       </c>
       <c r="M206">
-        <v>452601.0276631281</v>
+        <v>1038876.317981237</v>
       </c>
       <c r="N206">
-        <v>464820</v>
+        <v>410789</v>
       </c>
     </row>
     <row r="207">
@@ -8179,14 +8239,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C207">
-        <v>248700</v>
+        <v>179420</v>
       </c>
       <c r="E207">
-        <v>256553.3639629543</v>
+        <v>185085.6637001739</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8209,7 +8269,7 @@
         </is>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -8223,18 +8283,18 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C208">
-        <v>348102</v>
+        <v>248700</v>
       </c>
       <c r="E208">
-        <v>508028.3034811231</v>
+        <v>256553.3639629543</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8257,16 +8317,16 @@
         </is>
       </c>
       <c r="J208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L208">
         <v>0</v>
       </c>
       <c r="M208">
-        <v>887925.5541521215</v>
+        <v>452601.0276631281</v>
       </c>
       <c r="N208">
-        <v>636512</v>
+        <v>464820</v>
       </c>
     </row>
     <row r="209">
@@ -8275,14 +8335,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C209">
-        <v>257410</v>
+        <v>348102</v>
       </c>
       <c r="E209">
-        <v>375670.2506709985</v>
+        <v>508028.3034811231</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8305,7 +8365,7 @@
         </is>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -8319,18 +8379,18 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C210">
-        <v>133310</v>
+        <v>257410</v>
       </c>
       <c r="E210">
-        <v>518834.7686808587</v>
+        <v>375670.2506709985</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8339,7 +8399,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>commercial + FN catch records + creel survey</t>
+          <t>commercial + FN catch records</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8353,16 +8413,16 @@
         </is>
       </c>
       <c r="J210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210">
         <v>0</v>
       </c>
       <c r="M210">
-        <v>945916</v>
+        <v>887925.5541521215</v>
       </c>
       <c r="N210">
-        <v>295810.0000000001</v>
+        <v>636512</v>
       </c>
     </row>
     <row r="211">
@@ -8371,14 +8431,14 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C211">
-        <v>89100.00000000001</v>
+        <v>133310</v>
       </c>
       <c r="E211">
-        <v>420949.2313191414</v>
+        <v>518834.7686808587</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8401,7 +8461,7 @@
         </is>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -8415,18 +8475,18 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C212">
-        <v>120274</v>
+        <v>89100.00000000001</v>
       </c>
       <c r="E212">
-        <v>317599.9184047349</v>
+        <v>420949.2313191414</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -8449,16 +8509,16 @@
         </is>
       </c>
       <c r="J212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212">
         <v>0</v>
       </c>
       <c r="M212">
-        <v>458017.8992869732</v>
+        <v>945916</v>
       </c>
       <c r="N212">
-        <v>285725</v>
+        <v>295810.0000000001</v>
       </c>
     </row>
     <row r="213">
@@ -8467,14 +8527,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C213">
-        <v>146951</v>
+        <v>120274</v>
       </c>
       <c r="E213">
-        <v>139968.9808822382</v>
+        <v>317599.9184047349</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -8511,18 +8571,18 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C214">
-        <v>137807</v>
+        <v>146951</v>
       </c>
       <c r="E214">
-        <v>10315.74151293448</v>
+        <v>139968.9808822382</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -8551,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>56948</v>
+        <v>458017.8992869732</v>
       </c>
       <c r="N214">
-        <v>334648</v>
+        <v>285725</v>
       </c>
     </row>
     <row r="215">
@@ -8563,14 +8623,14 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C215">
-        <v>192941</v>
+        <v>137807</v>
       </c>
       <c r="E215">
-        <v>46602.25848706553</v>
+        <v>10315.74151293448</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -8593,7 +8653,7 @@
         </is>
       </c>
       <c r="J215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -8607,18 +8667,18 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C216">
-        <v>290714.9999999999</v>
+        <v>192941</v>
       </c>
       <c r="E216">
-        <v>83017.40213865854</v>
+        <v>46602.25848706553</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8641,16 +8701,16 @@
         </is>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216">
         <v>0</v>
       </c>
       <c r="M216">
-        <v>263260</v>
+        <v>56948</v>
       </c>
       <c r="N216">
-        <v>473349.9999999999</v>
+        <v>334648</v>
       </c>
     </row>
     <row r="217">
@@ -8659,14 +8719,14 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C217">
-        <v>151835</v>
+        <v>290714.9999999999</v>
       </c>
       <c r="E217">
-        <v>171365.5978613414</v>
+        <v>83017.40213865854</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8689,7 +8749,7 @@
         </is>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -8703,18 +8763,18 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C218">
-        <v>206676.0000000001</v>
+        <v>151835</v>
       </c>
       <c r="E218">
-        <v>146833.0244309762</v>
+        <v>171365.5978613414</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -8737,16 +8797,16 @@
         </is>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218">
         <v>0</v>
       </c>
       <c r="M218">
-        <v>326897.5916</v>
+        <v>263260</v>
       </c>
       <c r="N218">
-        <v>482393.0000000001</v>
+        <v>473349.9999999999</v>
       </c>
     </row>
     <row r="219">
@@ -8755,14 +8815,14 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C219">
-        <v>235417</v>
+        <v>206676.0000000001</v>
       </c>
       <c r="E219">
-        <v>178270.5671690238</v>
+        <v>146833.0244309762</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -8785,7 +8845,7 @@
         </is>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -8799,18 +8859,18 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C220">
-        <v>241263</v>
+        <v>235417</v>
       </c>
       <c r="E220">
-        <v>14924.00087526265</v>
+        <v>178270.5671690238</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8833,16 +8893,16 @@
         </is>
       </c>
       <c r="J220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L220">
         <v>0</v>
       </c>
       <c r="M220">
-        <v>28383.471375</v>
+        <v>326897.5916</v>
       </c>
       <c r="N220">
-        <v>449850.0000000001</v>
+        <v>482393.0000000001</v>
       </c>
     </row>
     <row r="221">
@@ -8851,14 +8911,14 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C221">
-        <v>167987</v>
+        <v>241263</v>
       </c>
       <c r="E221">
-        <v>13403.47049973735</v>
+        <v>14924.00087526265</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -8881,7 +8941,7 @@
         </is>
       </c>
       <c r="J221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -8895,18 +8955,18 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C222">
-        <v>179091</v>
+        <v>167987</v>
       </c>
       <c r="E222">
-        <v>19353.20374687612</v>
+        <v>13403.47049973735</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -8929,16 +8989,16 @@
         </is>
       </c>
       <c r="J222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L222">
         <v>0</v>
       </c>
       <c r="M222">
-        <v>37390</v>
+        <v>28383.471375</v>
       </c>
       <c r="N222">
-        <v>323281</v>
+        <v>449850.0000000001</v>
       </c>
     </row>
     <row r="223">
@@ -8947,14 +9007,14 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C223">
-        <v>112790</v>
+        <v>179091</v>
       </c>
       <c r="E223">
-        <v>17235.79625312387</v>
+        <v>19353.20374687612</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -8977,7 +9037,7 @@
         </is>
       </c>
       <c r="J223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -8991,18 +9051,18 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C224">
-        <v>433390.0000000001</v>
+        <v>112790</v>
       </c>
       <c r="E224">
-        <v>807514.4757371147</v>
+        <v>17235.79625312387</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9025,16 +9085,16 @@
         </is>
       </c>
       <c r="J224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L224">
         <v>0</v>
       </c>
       <c r="M224">
-        <v>1181307</v>
+        <v>37390</v>
       </c>
       <c r="N224">
-        <v>680965.0000000001</v>
+        <v>323281</v>
       </c>
     </row>
     <row r="225">
@@ -9043,14 +9103,14 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C225">
-        <v>209475</v>
+        <v>433390.0000000001</v>
       </c>
       <c r="E225">
-        <v>362597.5242628853</v>
+        <v>807514.4757371147</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9073,7 +9133,7 @@
         </is>
       </c>
       <c r="J225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -9087,18 +9147,18 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C226">
-        <v>188153</v>
+        <v>209475</v>
       </c>
       <c r="E226">
-        <v>178554.8334567147</v>
+        <v>362597.5242628853</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9121,16 +9181,16 @@
         </is>
       </c>
       <c r="J226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L226">
         <v>0</v>
       </c>
       <c r="M226">
-        <v>579970.1466654321</v>
+        <v>1181307</v>
       </c>
       <c r="N226">
-        <v>437791</v>
+        <v>680965.0000000001</v>
       </c>
     </row>
     <row r="227">
@@ -9139,14 +9199,14 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C227">
-        <v>221937.9999999999</v>
+        <v>188153</v>
       </c>
       <c r="E227">
-        <v>392343.3132087174</v>
+        <v>178554.8334567147</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9169,7 +9229,7 @@
         </is>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -9183,18 +9243,18 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C228">
-        <v>241761</v>
+        <v>221937.9999999999</v>
       </c>
       <c r="E228">
-        <v>432423.2165285624</v>
+        <v>392343.3132087174</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9217,16 +9277,16 @@
         </is>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
       <c r="M228">
-        <v>817369</v>
+        <v>579970.1466654321</v>
       </c>
       <c r="N228">
-        <v>627550</v>
+        <v>437791</v>
       </c>
     </row>
     <row r="229">
@@ -9235,14 +9295,14 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C229">
-        <v>205289</v>
+        <v>241761</v>
       </c>
       <c r="E229">
-        <v>348206.7834714376</v>
+        <v>432423.2165285624</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9265,7 +9325,7 @@
         </is>
       </c>
       <c r="J229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -9279,18 +9339,18 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C230">
-        <v>113493.0000000001</v>
+        <v>205289</v>
       </c>
       <c r="E230">
-        <v>97352.95948420328</v>
+        <v>348206.7834714376</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9313,16 +9373,16 @@
         </is>
       </c>
       <c r="J230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L230">
         <v>0</v>
       </c>
       <c r="M230">
-        <v>214571</v>
+        <v>817369</v>
       </c>
       <c r="N230">
-        <v>274663.0000000001</v>
+        <v>627550</v>
       </c>
     </row>
     <row r="231">
@@ -9331,14 +9391,14 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C231">
-        <v>143770.0000000001</v>
+        <v>113493.0000000001</v>
       </c>
       <c r="E231">
-        <v>82020.04051579669</v>
+        <v>97352.95948420328</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9361,7 +9421,7 @@
         </is>
       </c>
       <c r="J231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -9375,18 +9435,18 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C232">
-        <v>64011.00000000001</v>
+        <v>143770.0000000001</v>
       </c>
       <c r="E232">
-        <v>17925.29743190457</v>
+        <v>82020.04051579669</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9409,16 +9469,16 @@
         </is>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L232">
         <v>0</v>
       </c>
       <c r="M232">
-        <v>30536.00420168067</v>
+        <v>214571</v>
       </c>
       <c r="N232">
-        <v>170811</v>
+        <v>274663.0000000001</v>
       </c>
     </row>
     <row r="233">
@@ -9427,14 +9487,14 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C233">
-        <v>102400</v>
+        <v>64011.00000000001</v>
       </c>
       <c r="E233">
-        <v>12521.7067697761</v>
+        <v>17925.29743190457</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -9457,7 +9517,7 @@
         </is>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -9471,18 +9531,18 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C234">
-        <v>186382</v>
+        <v>102400</v>
       </c>
       <c r="E234">
-        <v>26873.04375818335</v>
+        <v>12521.7067697761</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -9505,16 +9565,16 @@
         </is>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234">
         <v>0</v>
       </c>
       <c r="M234">
-        <v>62596.00000000001</v>
+        <v>30536.00420168067</v>
       </c>
       <c r="N234">
-        <v>501780</v>
+        <v>170811</v>
       </c>
     </row>
     <row r="235">
@@ -9523,14 +9583,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C235">
-        <v>255498</v>
+        <v>186382</v>
       </c>
       <c r="E235">
-        <v>33811.95624181666</v>
+        <v>26873.04375818335</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -9553,7 +9613,7 @@
         </is>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -9567,18 +9627,18 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C236">
-        <v>178115.9999999999</v>
+        <v>255498</v>
       </c>
       <c r="E236">
-        <v>97280.64048682952</v>
+        <v>33811.95624181666</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -9592,7 +9652,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>MLE run timing model</t>
+          <t>assumed run timing</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -9601,16 +9661,16 @@
         </is>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L236">
         <v>0</v>
       </c>
       <c r="M236">
-        <v>156384</v>
+        <v>62596.00000000001</v>
       </c>
       <c r="N236">
-        <v>356203.9999999999</v>
+        <v>501780</v>
       </c>
     </row>
     <row r="237">
@@ -9619,14 +9679,14 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C237">
-        <v>131888</v>
+        <v>178115.9999999999</v>
       </c>
       <c r="E237">
-        <v>45690.35951317049</v>
+        <v>97280.64048682952</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -9649,7 +9709,7 @@
         </is>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -9663,18 +9723,18 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C238">
-        <v>274013.0000000001</v>
+        <v>131888</v>
       </c>
       <c r="E238">
-        <v>132609.2741320956</v>
+        <v>45690.35951317049</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -9697,16 +9757,16 @@
         </is>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238">
         <v>0</v>
       </c>
       <c r="M238">
-        <v>235130.7241488512</v>
+        <v>156384</v>
       </c>
       <c r="N238">
-        <v>640127.0000000001</v>
+        <v>356203.9999999999</v>
       </c>
     </row>
     <row r="239">
@@ -9715,14 +9775,14 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C239">
-        <v>274014.0000000001</v>
+        <v>274013.0000000001</v>
       </c>
       <c r="E239">
-        <v>75320.45001675557</v>
+        <v>132609.2741320956</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -9745,7 +9805,7 @@
         </is>
       </c>
       <c r="J239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -9759,18 +9819,18 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C240">
-        <v>211111.2792766747</v>
+        <v>274014.0000000001</v>
       </c>
       <c r="E240">
-        <v>58635.86069137148</v>
+        <v>75320.45001675557</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9793,16 +9853,16 @@
         </is>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L240">
         <v>0</v>
       </c>
       <c r="M240">
-        <v>115856.068</v>
+        <v>235130.7241488512</v>
       </c>
       <c r="N240">
-        <v>394147.213702481</v>
+        <v>640127.0000000001</v>
       </c>
     </row>
     <row r="241">
@@ -9811,14 +9871,14 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C241">
-        <v>169635.9344258063</v>
+        <v>211111.2792766747</v>
       </c>
       <c r="E241">
-        <v>55911.20730862853</v>
+        <v>58635.86069137148</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9841,7 +9901,7 @@
         </is>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -9855,18 +9915,18 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C242">
-        <v>71659.00000000004</v>
+        <v>169635.9344258063</v>
       </c>
       <c r="E242">
-        <v>37113.06465680368</v>
+        <v>55911.20730862853</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -9889,16 +9949,16 @@
         </is>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L242">
         <v>0</v>
       </c>
       <c r="M242">
-        <v>105163.5893782173</v>
+        <v>115856.068</v>
       </c>
       <c r="N242">
-        <v>223098.0000000001</v>
+        <v>394147.213702481</v>
       </c>
     </row>
     <row r="243">
@@ -9907,14 +9967,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C243">
-        <v>126339</v>
+        <v>71659.00000000004</v>
       </c>
       <c r="E243">
-        <v>67796.52472141362</v>
+        <v>37113.06465680368</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -9937,7 +9997,7 @@
         </is>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -9951,18 +10011,18 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C244">
-        <v>408826.862243237</v>
+        <v>126339</v>
       </c>
       <c r="E244">
-        <v>113863.9823215375</v>
+        <v>67796.52472141362</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9985,16 +10045,16 @@
         </is>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L244">
         <v>0</v>
       </c>
       <c r="M244">
-        <v>233776.9205341995</v>
+        <v>105163.5893782173</v>
       </c>
       <c r="N244">
-        <v>800244.862243237</v>
+        <v>223098.0000000001</v>
       </c>
     </row>
     <row r="245">
@@ -10003,14 +10063,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C245">
-        <v>371518</v>
+        <v>408826.862243237</v>
       </c>
       <c r="E245">
-        <v>117872.9382126621</v>
+        <v>113863.9823215375</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10033,32 +10093,32 @@
         </is>
       </c>
       <c r="J245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L245">
         <v>0</v>
       </c>
       <c r="M245">
-        <v>233776.9205341995</v>
+        <v>235816.9205341995</v>
       </c>
       <c r="N245">
-        <v>800244.862243237</v>
+        <v>820144.862243237</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C246">
-        <v>284855.7806640533</v>
+        <v>371518</v>
       </c>
       <c r="E246">
-        <v>384591.3972696845</v>
+        <v>117872.9382126621</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10081,16 +10141,16 @@
         </is>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L246">
         <v>0</v>
       </c>
       <c r="M246">
-        <v>600455.7875803118</v>
+        <v>235816.9205341995</v>
       </c>
       <c r="N246">
-        <v>522744.7806640534</v>
+        <v>820144.862243237</v>
       </c>
     </row>
     <row r="247">
@@ -10099,14 +10159,14 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C247">
-        <v>220189.0000000001</v>
+        <v>284855.7806640533</v>
       </c>
       <c r="E247">
-        <v>211952.3903106272</v>
+        <v>384591.3972696845</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10129,7 +10189,7 @@
         </is>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -10143,18 +10203,18 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C248">
-        <v>250967.6307078648</v>
+        <v>220189.0000000001</v>
       </c>
       <c r="E248">
-        <v>276616.6663030458</v>
+        <v>211952.3903106272</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10177,16 +10237,16 @@
         </is>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L248">
         <v>0</v>
       </c>
       <c r="M248">
-        <v>531341.3718806775</v>
+        <v>600455.7875803118</v>
       </c>
       <c r="N248">
-        <v>443175.6307078647</v>
+        <v>522744.7806640534</v>
       </c>
     </row>
     <row r="249">
@@ -10195,14 +10255,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C249">
-        <v>188907.9999999999</v>
+        <v>250967.6307078648</v>
       </c>
       <c r="E249">
-        <v>254487.7055776317</v>
+        <v>276616.6663030458</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10225,7 +10285,7 @@
         </is>
       </c>
       <c r="J249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -10239,18 +10299,18 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C250">
-        <v>224638</v>
+        <v>188907.9999999999</v>
       </c>
       <c r="E250">
-        <v>202386.6849503428</v>
+        <v>254487.7055776317</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10273,16 +10333,16 @@
         </is>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L250">
         <v>0</v>
       </c>
       <c r="M250">
-        <v>334435.1661</v>
+        <v>531341.3718806775</v>
       </c>
       <c r="N250">
-        <v>377681</v>
+        <v>443175.6307078647</v>
       </c>
     </row>
     <row r="251">
@@ -10291,14 +10351,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C251">
-        <v>150443</v>
+        <v>224638</v>
       </c>
       <c r="E251">
-        <v>132038.4811496573</v>
+        <v>202386.6849503428</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10321,7 +10381,7 @@
         </is>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -10335,18 +10395,18 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C252">
-        <v>194678.1407832186</v>
+        <v>150443</v>
       </c>
       <c r="E252">
-        <v>63306.91610701918</v>
+        <v>132038.4811496573</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10369,16 +10429,16 @@
         </is>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
       <c r="M252">
-        <v>105345.3813728291</v>
+        <v>334435.1661</v>
       </c>
       <c r="N252">
-        <v>347117.1404960908</v>
+        <v>377681</v>
       </c>
     </row>
     <row r="253">
@@ -10387,14 +10447,14 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C253">
-        <v>151138.9997128722</v>
+        <v>194678.1407832186</v>
       </c>
       <c r="E253">
-        <v>41737.46526580991</v>
+        <v>63306.91610701918</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10417,7 +10477,7 @@
         </is>
       </c>
       <c r="J253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -10431,18 +10491,18 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C254">
-        <v>136246.7296855859</v>
+        <v>151138.9997128722</v>
       </c>
       <c r="E254">
-        <v>61287.76745850981</v>
+        <v>41737.46526580991</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10465,16 +10525,16 @@
         </is>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L254">
         <v>0</v>
       </c>
       <c r="M254">
-        <v>90500.48540000001</v>
+        <v>105345.3813728291</v>
       </c>
       <c r="N254">
-        <v>203635.7296855859</v>
+        <v>347117.1404960908</v>
       </c>
     </row>
     <row r="255">
@@ -10483,14 +10543,14 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C255">
-        <v>63788.99999999998</v>
+        <v>136246.7296855859</v>
       </c>
       <c r="E255">
-        <v>28915.71794149018</v>
+        <v>61287.76745850981</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10513,7 +10573,7 @@
         </is>
       </c>
       <c r="J255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -10527,18 +10587,18 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C256">
-        <v>77622.00000000004</v>
+        <v>63788.99999999998</v>
       </c>
       <c r="E256">
-        <v>5003.304152842727</v>
+        <v>28915.71794149018</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10561,16 +10621,16 @@
         </is>
       </c>
       <c r="J256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L256">
         <v>0</v>
       </c>
       <c r="M256">
-        <v>10040</v>
+        <v>90500.48540000001</v>
       </c>
       <c r="N256">
-        <v>162815.0000000001</v>
+        <v>203635.7296855859</v>
       </c>
     </row>
     <row r="257">
@@ -10579,14 +10639,14 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C257">
-        <v>72693</v>
+        <v>77622.00000000004</v>
       </c>
       <c r="E257">
-        <v>4755.695847157274</v>
+        <v>5003.304152842727</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10609,7 +10669,7 @@
         </is>
       </c>
       <c r="J257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -10623,22 +10683,22 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C258">
-        <v>74024.00675675675</v>
+        <v>72693</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>4755.695847157274</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>video counts</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10648,7 +10708,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>escapement</t>
+          <t>MLE run timing model</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -10657,16 +10717,16 @@
         </is>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L258">
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0</v>
+        <v>10040</v>
       </c>
       <c r="N258">
-        <v>203968.0067567567</v>
+        <v>162815.0000000001</v>
       </c>
     </row>
     <row r="259">
@@ -10675,11 +10735,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C259">
-        <v>116844</v>
+        <v>74024.00675675675</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -10705,7 +10765,7 @@
         </is>
       </c>
       <c r="J259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -10719,18 +10779,18 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C260">
-        <v>222241.2876649233</v>
+        <v>116844</v>
       </c>
       <c r="E260">
-        <v>86640.18459735703</v>
+        <v>0</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -10744,7 +10804,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>assumed run timing</t>
+          <t>escapement</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -10753,16 +10813,16 @@
         </is>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L260">
         <v>0</v>
       </c>
       <c r="M260">
-        <v>149521.6328902802</v>
+        <v>0</v>
       </c>
       <c r="N260">
-        <v>430072.2876649234</v>
+        <v>203968.0067567567</v>
       </c>
     </row>
     <row r="261">
@@ -10771,14 +10831,14 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C261">
-        <v>177831.0000000001</v>
+        <v>222241.2876649233</v>
       </c>
       <c r="E261">
-        <v>62881.44829292317</v>
+        <v>86640.18459735703</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -10801,7 +10861,7 @@
         </is>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -10815,18 +10875,18 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C262">
-        <v>343999</v>
+        <v>177831.0000000001</v>
       </c>
       <c r="E262">
-        <v>496565.0420667162</v>
+        <v>62881.44829292317</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -10849,16 +10909,16 @@
         </is>
       </c>
       <c r="J262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L262">
         <v>0</v>
       </c>
       <c r="M262">
-        <v>938124.682827242</v>
+        <v>149521.6328902802</v>
       </c>
       <c r="N262">
-        <v>830435</v>
+        <v>430072.2876649234</v>
       </c>
     </row>
     <row r="263">
@@ -10867,14 +10927,14 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C263">
-        <v>456436.0000000001</v>
+        <v>343999</v>
       </c>
       <c r="E263">
-        <v>441559.6407605257</v>
+        <v>496565.0420667162</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -10897,7 +10957,7 @@
         </is>
       </c>
       <c r="J263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -10911,18 +10971,18 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C264">
-        <v>445819.9999999999</v>
+        <v>456436.0000000001</v>
       </c>
       <c r="E264">
-        <v>321344.7875944228</v>
+        <v>441559.6407605257</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -10936,7 +10996,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>DNA attribution</t>
+          <t>assumed run timing</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -10945,16 +11005,16 @@
         </is>
       </c>
       <c r="J264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L264">
         <v>0</v>
       </c>
       <c r="M264">
-        <v>590914.3653989306</v>
+        <v>938124.682827242</v>
       </c>
       <c r="N264">
-        <v>905456.9999999998</v>
+        <v>830435</v>
       </c>
     </row>
     <row r="265">
@@ -10963,14 +11023,14 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C265">
-        <v>439213.9999999999</v>
+        <v>445819.9999999999</v>
       </c>
       <c r="E265">
-        <v>262604.5778045079</v>
+        <v>321344.7875944228</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -10993,7 +11053,7 @@
         </is>
       </c>
       <c r="J265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -11007,18 +11067,18 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C266">
-        <v>149343.9999999999</v>
+        <v>439213.9999999999</v>
       </c>
       <c r="E266">
-        <v>181516.9165734799</v>
+        <v>262604.5778045079</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11041,16 +11101,16 @@
         </is>
       </c>
       <c r="J266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L266">
         <v>0</v>
       </c>
       <c r="M266">
-        <v>385592.5588652157</v>
+        <v>590914.3653989306</v>
       </c>
       <c r="N266">
-        <v>395857.9999999999</v>
+        <v>905456.9999999998</v>
       </c>
     </row>
     <row r="267">
@@ -11059,14 +11119,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C267">
-        <v>229381</v>
+        <v>149343.9999999999</v>
       </c>
       <c r="E267">
-        <v>198133.6422917358</v>
+        <v>181516.9165734799</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11089,7 +11149,7 @@
         </is>
       </c>
       <c r="J267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -11103,18 +11163,18 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C268">
-        <v>184732.5000000001</v>
+        <v>229381</v>
       </c>
       <c r="E268">
-        <v>26580.1391093958</v>
+        <v>198133.6422917358</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11137,16 +11197,16 @@
         </is>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L268">
         <v>0</v>
       </c>
       <c r="M268">
-        <v>89406.92896357566</v>
+        <v>385592.5588652157</v>
       </c>
       <c r="N268">
-        <v>664957.5864587885</v>
+        <v>395857.9999999999</v>
       </c>
     </row>
     <row r="269">
@@ -11155,14 +11215,14 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C269">
-        <v>467725.0864587884</v>
+        <v>184732.5000000001</v>
       </c>
       <c r="E269">
-        <v>61701.78985417985</v>
+        <v>26580.1391093958</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11185,7 +11245,7 @@
         </is>
       </c>
       <c r="J269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269">
         <v>0</v>
@@ -11199,18 +11259,18 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C270">
-        <v>162685.7579745326</v>
+        <v>467725.0864587884</v>
       </c>
       <c r="E270">
-        <v>191765.2559201121</v>
+        <v>61701.78985417985</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11233,16 +11293,16 @@
         </is>
       </c>
       <c r="J270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L270">
         <v>0</v>
       </c>
       <c r="M270">
-        <v>676503.3420213063</v>
+        <v>89406.92896357566</v>
       </c>
       <c r="N270">
-        <v>539951.848459169</v>
+        <v>664957.5864587885</v>
       </c>
     </row>
     <row r="271">
@@ -11251,14 +11311,14 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C271">
-        <v>365429.0904846364</v>
+        <v>162685.7579745326</v>
       </c>
       <c r="E271">
-        <v>463082.0861011941</v>
+        <v>191765.2559201121</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11281,7 +11341,7 @@
         </is>
       </c>
       <c r="J271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -11295,18 +11355,18 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C272">
-        <v>427539.0700000001</v>
+        <v>365429.0904846364</v>
       </c>
       <c r="E272">
-        <v>576323</v>
+        <v>463082.0861011941</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11329,16 +11389,16 @@
         </is>
       </c>
       <c r="J272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L272">
         <v>0</v>
       </c>
       <c r="M272">
-        <v>1309599</v>
+        <v>676503.3420213063</v>
       </c>
       <c r="N272">
-        <v>764186.6399999999</v>
+        <v>539951.848459169</v>
       </c>
     </row>
     <row r="273">
@@ -11347,14 +11407,14 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C273">
-        <v>330247.5699999999</v>
+        <v>427539.0700000001</v>
       </c>
       <c r="E273">
-        <v>728084</v>
+        <v>576323</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11377,7 +11437,7 @@
         </is>
       </c>
       <c r="J273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273">
         <v>0</v>
@@ -11391,18 +11451,18 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C274">
-        <v>224362.26</v>
+        <v>330247.5699999999</v>
       </c>
       <c r="E274">
-        <v>346601</v>
+        <v>728084</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11425,16 +11485,16 @@
         </is>
       </c>
       <c r="J274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L274">
         <v>0</v>
       </c>
       <c r="M274">
-        <v>662128</v>
+        <v>1309599</v>
       </c>
       <c r="N274">
-        <v>468215.01</v>
+        <v>764186.6399999999</v>
       </c>
     </row>
     <row r="275">
@@ -11443,14 +11503,14 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C275">
-        <v>233152.75</v>
+        <v>224362.26</v>
       </c>
       <c r="E275">
-        <v>292416</v>
+        <v>346601</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11473,7 +11533,7 @@
         </is>
       </c>
       <c r="J275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L275">
         <v>0</v>
@@ -11487,18 +11547,18 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C276">
-        <v>138816.9999999999</v>
+        <v>233152.75</v>
       </c>
       <c r="E276">
-        <v>35952.90842462306</v>
+        <v>292416</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11521,16 +11581,16 @@
         </is>
       </c>
       <c r="J276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L276">
         <v>0</v>
       </c>
       <c r="M276">
-        <v>97288.52343308111</v>
+        <v>662128</v>
       </c>
       <c r="N276">
-        <v>457992.6800000002</v>
+        <v>468215.01</v>
       </c>
     </row>
     <row r="277">
@@ -11539,14 +11599,14 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C277">
-        <v>296471.6800000002</v>
+        <v>138816.9999999999</v>
       </c>
       <c r="E277">
-        <v>58118.61500845804</v>
+        <v>35952.90842462306</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11569,7 +11629,7 @@
         </is>
       </c>
       <c r="J277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -11583,18 +11643,18 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C278">
-        <v>38619.78999999999</v>
+        <v>296471.6800000002</v>
       </c>
       <c r="E278">
-        <v>15271.24414467358</v>
+        <v>58118.61500845804</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11617,16 +11677,16 @@
         </is>
       </c>
       <c r="J278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L278">
         <v>0</v>
       </c>
       <c r="M278">
-        <v>82158.61597752468</v>
+        <v>97288.52343308111</v>
       </c>
       <c r="N278">
-        <v>208635.1100000002</v>
+        <v>457992.6800000002</v>
       </c>
     </row>
     <row r="279">
@@ -11635,14 +11695,14 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C279">
-        <v>157812.3200000002</v>
+        <v>38619.78999999999</v>
       </c>
       <c r="E279">
-        <v>66261.3718328511</v>
+        <v>15271.24414467358</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11665,7 +11725,7 @@
         </is>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L279">
         <v>0</v>
@@ -11679,18 +11739,18 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C280">
-        <v>48820.01</v>
+        <v>157812.3200000002</v>
       </c>
       <c r="E280">
-        <v>14863.06220666183</v>
+        <v>66261.3718328511</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11713,16 +11773,16 @@
         </is>
       </c>
       <c r="J280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L280">
         <v>0</v>
       </c>
       <c r="M280">
-        <v>54797.43787213185</v>
+        <v>82158.61597752468</v>
       </c>
       <c r="N280">
-        <v>191725.02</v>
+        <v>208635.1100000002</v>
       </c>
     </row>
     <row r="281">
@@ -11731,14 +11791,14 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C281">
-        <v>129356.01</v>
+        <v>48820.01</v>
       </c>
       <c r="E281">
-        <v>39780.37566547002</v>
+        <v>14863.06220666183</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -11761,7 +11821,7 @@
         </is>
       </c>
       <c r="J281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -11775,18 +11835,18 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C282">
-        <v>139976.06</v>
+        <v>129356.01</v>
       </c>
       <c r="E282">
-        <v>34161.94953692595</v>
+        <v>39780.37566547002</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11809,16 +11869,16 @@
         </is>
       </c>
       <c r="J282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L282">
         <v>0</v>
       </c>
       <c r="M282">
-        <v>74112.09621734613</v>
+        <v>54797.43787213185</v>
       </c>
       <c r="N282">
-        <v>314010.15</v>
+        <v>191725.02</v>
       </c>
     </row>
     <row r="283">
@@ -11827,14 +11887,14 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C283">
-        <v>169445.09</v>
+        <v>139976.06</v>
       </c>
       <c r="E283">
-        <v>39507.14668042018</v>
+        <v>34161.94953692595</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11857,7 +11917,7 @@
         </is>
       </c>
       <c r="J283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -11871,18 +11931,18 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C284">
-        <v>225180</v>
+        <v>169445.09</v>
       </c>
       <c r="E284">
-        <v>113676</v>
+        <v>39507.14668042018</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -11905,16 +11965,16 @@
         </is>
       </c>
       <c r="J284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L284">
         <v>0</v>
       </c>
       <c r="M284">
-        <v>187163</v>
+        <v>74112.09621734613</v>
       </c>
       <c r="N284">
-        <v>422040</v>
+        <v>314010.15</v>
       </c>
     </row>
     <row r="285">
@@ -11923,14 +11983,14 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C285">
-        <v>182340</v>
+        <v>225180</v>
       </c>
       <c r="E285">
-        <v>69128</v>
+        <v>113676</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -11953,7 +12013,7 @@
         </is>
       </c>
       <c r="J285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285">
         <v>0</v>
@@ -11967,18 +12027,18 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C286">
-        <v>235763</v>
+        <v>182340</v>
       </c>
       <c r="E286">
-        <v>110012</v>
+        <v>69128</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12001,16 +12061,16 @@
         </is>
       </c>
       <c r="J286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L286">
         <v>0</v>
       </c>
       <c r="M286">
-        <v>351689</v>
+        <v>187163</v>
       </c>
       <c r="N286">
-        <v>669650</v>
+        <v>422040</v>
       </c>
     </row>
     <row r="287">
@@ -12019,14 +12079,14 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C287">
-        <v>415241</v>
+        <v>235763</v>
       </c>
       <c r="E287">
-        <v>233946</v>
+        <v>110012</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12049,7 +12109,7 @@
         </is>
       </c>
       <c r="J287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -12063,18 +12123,18 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C288">
-        <v>209265.0000000001</v>
+        <v>415241</v>
       </c>
       <c r="E288">
-        <v>141594.4059457992</v>
+        <v>233946</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12097,16 +12157,16 @@
         </is>
       </c>
       <c r="J288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L288">
         <v>0</v>
       </c>
       <c r="M288">
-        <v>328495.6625937843</v>
+        <v>351689</v>
       </c>
       <c r="N288">
-        <v>377396.0000000001</v>
+        <v>669650</v>
       </c>
     </row>
     <row r="289">
@@ -12115,14 +12175,14 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C289">
-        <v>155018</v>
+        <v>209265.0000000001</v>
       </c>
       <c r="E289">
-        <v>178705.2566479851</v>
+        <v>141594.4059457992</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -12145,7 +12205,7 @@
         </is>
       </c>
       <c r="J289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L289">
         <v>0</v>
@@ -12159,31 +12219,55 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>1926</v>
+        <v>2023</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>GCL + SPR</t>
-        </is>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="C290">
+        <v>155018</v>
       </c>
       <c r="E290">
-        <v>10000</v>
+        <v>178705.2566479851</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>video counts</t>
+        </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>commercial catch records</t>
-        </is>
+          <t>commercial + FN catch records + creel survey</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>DNA attribution</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>scale sampling</t>
+        </is>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
       </c>
       <c r="M290">
-        <v>45412</v>
+        <v>328495.6625937843</v>
       </c>
       <c r="N290">
-        <v>75695</v>
+        <v>377396.0000000001</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -12191,7 +12275,7 @@
         </is>
       </c>
       <c r="E291">
-        <v>65400</v>
+        <v>10000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -12199,15 +12283,15 @@
         </is>
       </c>
       <c r="M291">
-        <v>91069</v>
+        <v>45412</v>
       </c>
       <c r="N291">
-        <v>70000</v>
+        <v>75695</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -12215,7 +12299,7 @@
         </is>
       </c>
       <c r="E292">
-        <v>23000</v>
+        <v>65400</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -12223,7 +12307,7 @@
         </is>
       </c>
       <c r="M292">
-        <v>38000</v>
+        <v>91069</v>
       </c>
       <c r="N292">
         <v>70000</v>
@@ -12231,7 +12315,7 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -12239,7 +12323,7 @@
         </is>
       </c>
       <c r="E293">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -12247,15 +12331,15 @@
         </is>
       </c>
       <c r="M293">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="N293">
-        <v>138018</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -12263,7 +12347,7 @@
         </is>
       </c>
       <c r="E294">
-        <v>48000</v>
+        <v>18000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -12271,15 +12355,15 @@
         </is>
       </c>
       <c r="M294">
-        <v>58600</v>
+        <v>18000</v>
       </c>
       <c r="N294">
-        <v>49501</v>
+        <v>138018</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -12287,7 +12371,7 @@
         </is>
       </c>
       <c r="E295">
-        <v>39000</v>
+        <v>48000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -12295,15 +12379,15 @@
         </is>
       </c>
       <c r="M295">
-        <v>59260</v>
+        <v>58600</v>
       </c>
       <c r="N295">
-        <v>56920</v>
+        <v>49501</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -12311,7 +12395,7 @@
         </is>
       </c>
       <c r="E296">
-        <v>77000</v>
+        <v>39000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -12319,15 +12403,15 @@
         </is>
       </c>
       <c r="M296">
-        <v>105000</v>
+        <v>59260</v>
       </c>
       <c r="N296">
-        <v>37472</v>
+        <v>56920</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -12335,7 +12419,7 @@
         </is>
       </c>
       <c r="E297">
-        <v>60000</v>
+        <v>77000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -12343,33 +12427,57 @@
         </is>
       </c>
       <c r="M297">
-        <v>80500</v>
+        <v>105000</v>
       </c>
       <c r="N297">
-        <v>9206</v>
+        <v>37472</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
+        <v>1933</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>GCL + SPR</t>
+        </is>
+      </c>
+      <c r="E298">
+        <v>60000</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>commercial catch records</t>
+        </is>
+      </c>
+      <c r="M298">
+        <v>80500</v>
+      </c>
+      <c r="N298">
+        <v>9206</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
         <v>1934</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B299" t="inlineStr">
         <is>
           <t>GCL + SPR</t>
         </is>
       </c>
-      <c r="E298">
+      <c r="E299">
         <v>75000</v>
       </c>
-      <c r="G298" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>commercial catch records</t>
         </is>
       </c>
-      <c r="M298">
+      <c r="M299">
         <v>81500</v>
       </c>
-      <c r="N298">
+      <c r="N299">
         <v>19858</v>
       </c>
     </row>

--- a/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
+++ b/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N299"/>
+  <dimension ref="A1:N298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3833,15 +3833,15 @@
         <v>2100000</v>
       </c>
       <c r="M85">
-        <v>235816.9205341995</v>
+        <v>233776.9205341995</v>
       </c>
       <c r="N85">
-        <v>820144.862243237</v>
+        <v>800244.862243237</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3849,10 +3849,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>19900</v>
+        <v>17700</v>
       </c>
       <c r="E86">
-        <v>2040</v>
+        <v>3912</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3878,18 +3878,18 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2100000</v>
+        <v>2300000</v>
       </c>
       <c r="M86">
-        <v>235816.9205341995</v>
+        <v>600455.7875803118</v>
       </c>
       <c r="N86">
-        <v>820144.862243237</v>
+        <v>522744.7806640534</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>17700</v>
+        <v>3300</v>
       </c>
       <c r="E87">
-        <v>3912</v>
+        <v>237</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3917,27 +3917,22 @@
           <t>MLE run timing model</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>scale sampling</t>
-        </is>
-      </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>2300000</v>
+        <v>783000</v>
       </c>
       <c r="M87">
-        <v>600455.7875803118</v>
+        <v>531341.3718806775</v>
       </c>
       <c r="N87">
-        <v>522744.7806640534</v>
+        <v>443175.6307078647</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3945,10 +3940,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="E88">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3969,18 +3964,18 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>783000</v>
+        <v>755300</v>
       </c>
       <c r="M88">
-        <v>531341.3718806775</v>
+        <v>334435.1661</v>
       </c>
       <c r="N88">
-        <v>443175.6307078647</v>
+        <v>377681</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3988,10 +3983,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4012,18 +4007,18 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>755300</v>
+        <v>97750</v>
       </c>
       <c r="M89">
-        <v>334435.1661</v>
+        <v>105345.3813728291</v>
       </c>
       <c r="N89">
-        <v>377681</v>
+        <v>347117.1404960908</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4031,10 +4026,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>1300</v>
+        <v>3600</v>
       </c>
       <c r="E90">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4055,18 +4050,18 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>97750</v>
+        <v>1558240</v>
       </c>
       <c r="M90">
-        <v>105345.3813728291</v>
+        <v>90500.48540000001</v>
       </c>
       <c r="N90">
-        <v>347117.1404960908</v>
+        <v>203635.7296855859</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4074,14 +4069,14 @@
         </is>
       </c>
       <c r="C91">
-        <v>3600</v>
+        <v>12500</v>
       </c>
       <c r="E91">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>fence count</t>
+          <t>AUC survey - Clemens</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4094,22 +4089,27 @@
           <t>MLE run timing model</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>scale sampling</t>
+        </is>
+      </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>1558240</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>90500.48540000001</v>
+        <v>10040</v>
       </c>
       <c r="N91">
-        <v>203635.7296855859</v>
+        <v>162815.0000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="E92">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>MLE run timing model</t>
+          <t>escapement</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4143,21 +4143,21 @@
         </is>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>10040</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>162815.0000000001</v>
+        <v>203968.0067567567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4165,10 +4165,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>13100</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4180,11 +4177,6 @@
           <t>commercial + FN catch records + creel survey</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>escapement</t>
-        </is>
-      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>scale sampling</t>
@@ -4197,15 +4189,15 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>149521.6328902802</v>
       </c>
       <c r="N93">
-        <v>203968.0067567567</v>
+        <v>430072.2876649234</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4237,15 +4229,15 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>149521.6328902802</v>
+        <v>938124.682827242</v>
       </c>
       <c r="N94">
-        <v>430072.2876649234</v>
+        <v>830435</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4253,7 +4245,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>30000</v>
+        <v>20423</v>
+      </c>
+      <c r="E95">
+        <v>6965</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4265,6 +4260,11 @@
           <t>commercial + FN catch records + creel survey</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>DNA attribution</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>scale sampling</t>
@@ -4277,15 +4277,15 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>938124.682827242</v>
+        <v>590914.3653989306</v>
       </c>
       <c r="N95">
-        <v>830435</v>
+        <v>905456.9999999998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>20423</v>
+        <v>17133</v>
       </c>
       <c r="E96">
-        <v>6965</v>
+        <v>5942</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4325,15 +4325,15 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>590914.3653989306</v>
+        <v>385592.5588652157</v>
       </c>
       <c r="N96">
-        <v>905456.9999999998</v>
+        <v>395857.9999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4341,10 +4341,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>17133</v>
+        <v>12500</v>
       </c>
       <c r="E97">
-        <v>5942</v>
+        <v>1125</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4373,15 +4373,15 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>385592.5588652157</v>
+        <v>89406.92896357566</v>
       </c>
       <c r="N97">
-        <v>395857.9999999999</v>
+        <v>664957.5864587885</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>12500</v>
+        <v>11837</v>
       </c>
       <c r="E98">
-        <v>1125</v>
+        <v>21656</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4421,15 +4421,15 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>89406.92896357566</v>
+        <v>676503.3420213063</v>
       </c>
       <c r="N98">
-        <v>664957.5864587885</v>
+        <v>539951.848459169</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>11837</v>
+        <v>6400</v>
       </c>
       <c r="E99">
-        <v>21656</v>
+        <v>5192</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4469,15 +4469,15 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>676503.3420213063</v>
+        <v>1309599</v>
       </c>
       <c r="N99">
-        <v>539951.848459169</v>
+        <v>764186.6399999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>6400</v>
+        <v>10700</v>
       </c>
       <c r="E100">
-        <v>5192</v>
+        <v>23111</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4517,15 +4517,15 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1309599</v>
+        <v>662128</v>
       </c>
       <c r="N100">
-        <v>764186.6399999999</v>
+        <v>468215.01</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4533,10 +4533,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>10700</v>
+        <v>22704</v>
       </c>
       <c r="E101">
-        <v>23111</v>
+        <v>3217</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4565,15 +4565,15 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>662128</v>
+        <v>97288.52343308111</v>
       </c>
       <c r="N101">
-        <v>468215.01</v>
+        <v>457992.6800000002</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4581,10 +4581,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>22704</v>
+        <v>12203</v>
       </c>
       <c r="E102">
-        <v>3217</v>
+        <v>626</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4613,15 +4613,15 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>97288.52343308111</v>
+        <v>82158.61597752468</v>
       </c>
       <c r="N102">
-        <v>457992.6800000002</v>
+        <v>208635.1100000002</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4629,10 +4629,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>12203</v>
+        <v>13549</v>
       </c>
       <c r="E103">
-        <v>626</v>
+        <v>154</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4661,15 +4661,15 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>82158.61597752468</v>
+        <v>54797.43787213185</v>
       </c>
       <c r="N103">
-        <v>208635.1100000002</v>
+        <v>191725.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>13549</v>
+        <v>4589</v>
       </c>
       <c r="E104">
-        <v>154</v>
+        <v>443</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4709,15 +4709,15 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>54797.43787213185</v>
+        <v>74112.09621734613</v>
       </c>
       <c r="N104">
-        <v>191725.02</v>
+        <v>314010.15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>4589</v>
+        <v>14520</v>
       </c>
       <c r="E105">
-        <v>443</v>
+        <v>4359</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4757,15 +4757,15 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>74112.09621734613</v>
+        <v>187163</v>
       </c>
       <c r="N105">
-        <v>314010.15</v>
+        <v>422040</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4773,10 +4773,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>14520</v>
+        <v>18646</v>
       </c>
       <c r="E106">
-        <v>4359</v>
+        <v>7731</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4805,15 +4805,15 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>187163</v>
+        <v>351689</v>
       </c>
       <c r="N106">
-        <v>422040</v>
+        <v>669650</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4821,10 +4821,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>18646</v>
+        <v>13113</v>
       </c>
       <c r="E107">
-        <v>7731</v>
+        <v>8196</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4853,63 +4853,45 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>351689</v>
+        <v>328495.6625937843</v>
       </c>
       <c r="N107">
-        <v>669650</v>
+        <v>377396.0000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2023</v>
+        <v>1926</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HUC</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C108">
-        <v>13113</v>
-      </c>
-      <c r="E108">
-        <v>8196</v>
+        <v>10695</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AUC survey - Clemens</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>commercial + FN catch records + creel survey</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>DNA attribution</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>scale sampling</t>
+          <t>manual transport count</t>
         </is>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
-      <c r="K108">
-        <v>0</v>
+      <c r="L108">
+        <v>2002000</v>
       </c>
       <c r="M108">
-        <v>328495.6625937843</v>
+        <v>45412</v>
       </c>
       <c r="N108">
-        <v>377396.0000000001</v>
+        <v>75695</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4917,29 +4899,29 @@
         </is>
       </c>
       <c r="C109">
-        <v>10695</v>
+        <v>3018</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>manual transport count</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="L109">
-        <v>2002000</v>
+        <v>1505000</v>
       </c>
       <c r="M109">
-        <v>45412</v>
+        <v>18000</v>
       </c>
       <c r="N109">
-        <v>75695</v>
+        <v>138018</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4947,7 +4929,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>3018</v>
+        <v>9501</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4958,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>1505000</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>18000</v>
+        <v>58600</v>
       </c>
       <c r="N110">
-        <v>138018</v>
+        <v>49501</v>
       </c>
     </row>
     <row r="111">
@@ -4973,15 +4955,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>9501</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J111">
@@ -4999,21 +4983,19 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>6920</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J112">
@@ -5023,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>58600</v>
+        <v>59260</v>
       </c>
       <c r="N112">
-        <v>49501</v>
+        <v>56920</v>
       </c>
     </row>
     <row r="113">
@@ -5035,15 +5017,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>6920</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J113">
@@ -5061,34 +5045,32 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>2472</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>2002000</v>
       </c>
       <c r="M114">
-        <v>59260</v>
+        <v>105000</v>
       </c>
       <c r="N114">
-        <v>56920</v>
+        <v>37472</v>
       </c>
     </row>
     <row r="115">
@@ -5097,22 +5079,24 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C115">
-        <v>2472</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="L115">
-        <v>2002000</v>
+        <v>1505000</v>
       </c>
       <c r="M115">
         <v>105000</v>
@@ -5123,34 +5107,32 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>1706</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="L116">
-        <v>1505000</v>
+        <v>0</v>
       </c>
       <c r="M116">
-        <v>105000</v>
+        <v>80500</v>
       </c>
       <c r="N116">
-        <v>37472</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="117">
@@ -5159,22 +5141,24 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C117">
-        <v>1706</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J117">
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>2002000</v>
       </c>
       <c r="M117">
         <v>80500</v>
@@ -5185,34 +5169,32 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>4858</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>2002000</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>80500</v>
+        <v>81500</v>
       </c>
       <c r="N118">
-        <v>9206</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="119">
@@ -5221,15 +5203,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C119">
-        <v>4858</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J119">
@@ -5247,21 +5231,19 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>5953</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J120">
@@ -5271,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>81500</v>
+        <v>71020</v>
       </c>
       <c r="N120">
-        <v>19858</v>
+        <v>50953</v>
       </c>
     </row>
     <row r="121">
@@ -5283,15 +5265,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C121">
-        <v>5953</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J121">
@@ -5309,21 +5293,19 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>12206</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J122">
@@ -5333,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>71020</v>
+        <v>94580</v>
       </c>
       <c r="N122">
-        <v>50953</v>
+        <v>14206</v>
       </c>
     </row>
     <row r="123">
@@ -5345,15 +5327,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C123">
-        <v>12206</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J123">
@@ -5371,21 +5355,19 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>7365</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J124">
@@ -5395,15 +5377,15 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>94580</v>
+        <v>61000</v>
       </c>
       <c r="N124">
-        <v>14206</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5411,7 +5393,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>7365</v>
+        <v>5894</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5425,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>61000</v>
+        <v>47300</v>
       </c>
       <c r="N125">
-        <v>45365</v>
+        <v>15894</v>
       </c>
     </row>
     <row r="126">
@@ -5437,15 +5419,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>5894</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J126">
@@ -5463,21 +5447,19 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>3119</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J127">
@@ -5487,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>47300</v>
+        <v>51000</v>
       </c>
       <c r="N127">
-        <v>15894</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="128">
@@ -5499,15 +5481,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>3119</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J128">
@@ -5525,21 +5509,19 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>2936</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J129">
@@ -5549,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>51000</v>
+        <v>26580</v>
       </c>
       <c r="N129">
-        <v>17119</v>
+        <v>62936</v>
       </c>
     </row>
     <row r="130">
@@ -5561,15 +5543,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>2936</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J130">
@@ -5587,21 +5571,19 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>14625</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J131">
@@ -5611,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>26580</v>
+        <v>25000</v>
       </c>
       <c r="N131">
-        <v>62936</v>
+        <v>16625</v>
       </c>
     </row>
     <row r="132">
@@ -5623,15 +5605,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>14625</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J132">
@@ -5649,21 +5633,19 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>15823</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J133">
@@ -5673,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>25000</v>
+        <v>29200</v>
       </c>
       <c r="N133">
-        <v>16625</v>
+        <v>22823</v>
       </c>
     </row>
     <row r="134">
@@ -5685,15 +5667,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GCL</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>15823</v>
+          <t>SPR</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>heavy</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>partial shoreline estimate</t>
         </is>
       </c>
       <c r="J134">
@@ -5711,21 +5695,19 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>heavy</t>
-        </is>
+          <t>GCL</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>5421</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>partial shoreline estimate</t>
+          <t>fishery officer</t>
         </is>
       </c>
       <c r="J135">
@@ -5735,15 +5717,15 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>29200</v>
+        <v>38860</v>
       </c>
       <c r="N135">
-        <v>22823</v>
+        <v>10421</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5751,7 +5733,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>5421</v>
+        <v>4537</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5765,15 +5747,15 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>38860</v>
+        <v>14600</v>
       </c>
       <c r="N136">
-        <v>10421</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5781,7 +5763,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>4537</v>
+        <v>26245</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -5795,15 +5777,15 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>14600</v>
+        <v>11800</v>
       </c>
       <c r="N137">
-        <v>9537</v>
+        <v>40245</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5811,7 +5793,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>26245</v>
+        <v>5986</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -5825,15 +5807,15 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>11800</v>
+        <v>13980</v>
       </c>
       <c r="N138">
-        <v>40245</v>
+        <v>19986</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5841,7 +5823,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>5986</v>
+        <v>5900</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5855,15 +5837,15 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>13980</v>
+        <v>5440</v>
       </c>
       <c r="N139">
-        <v>19986</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5871,7 +5853,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>5900</v>
+        <v>4167</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -5885,15 +5867,15 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>5440</v>
+        <v>9560</v>
       </c>
       <c r="N140">
-        <v>12900</v>
+        <v>11167</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5901,7 +5883,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>4167</v>
+        <v>50418</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5915,15 +5897,15 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>9560</v>
+        <v>35720</v>
       </c>
       <c r="N141">
-        <v>11167</v>
+        <v>80418</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5931,7 +5913,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>50418</v>
+        <v>20000</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5945,10 +5927,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>35720</v>
+        <v>55190</v>
       </c>
       <c r="N142">
-        <v>80418</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="143">
@@ -5957,11 +5939,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C143">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -5983,15 +5965,15 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C144">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6005,10 +5987,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>55190</v>
+        <v>76018</v>
       </c>
       <c r="N144">
-        <v>44000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="145">
@@ -6017,11 +5999,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C145">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6043,15 +6025,15 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C146">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6065,10 +6047,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>76018</v>
+        <v>50094</v>
       </c>
       <c r="N146">
-        <v>89000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="147">
@@ -6077,11 +6059,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C147">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6103,15 +6085,15 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C148">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6125,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>50094</v>
+        <v>76328</v>
       </c>
       <c r="N148">
-        <v>36000</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="149">
@@ -6137,11 +6119,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C149">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6163,11 +6145,11 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C150">
@@ -6185,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>76328</v>
+        <v>38405</v>
       </c>
       <c r="N150">
-        <v>64000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="151">
@@ -6197,11 +6179,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C151">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6223,11 +6205,11 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C152">
@@ -6245,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>38405</v>
+        <v>28714</v>
       </c>
       <c r="N152">
-        <v>65000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="153">
@@ -6257,11 +6239,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C153">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6283,15 +6265,15 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C154">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6305,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>28714</v>
+        <v>8934</v>
       </c>
       <c r="N154">
-        <v>39000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="155">
@@ -6317,7 +6299,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C155">
@@ -6343,15 +6325,15 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C156">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6365,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>8934</v>
+        <v>11749</v>
       </c>
       <c r="N156">
-        <v>17000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="157">
@@ -6377,11 +6359,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C157">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6403,15 +6385,15 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C158">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6425,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>11749</v>
+        <v>8296</v>
       </c>
       <c r="N158">
-        <v>147000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="159">
@@ -6437,7 +6419,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C159">
@@ -6463,11 +6445,11 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C160">
@@ -6485,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>8296</v>
+        <v>6966</v>
       </c>
       <c r="N160">
         <v>54000</v>
@@ -6497,7 +6479,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C161">
@@ -6523,11 +6505,11 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C162">
@@ -6545,10 +6527,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>6966</v>
+        <v>9144</v>
       </c>
       <c r="N162">
-        <v>54000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="163">
@@ -6557,7 +6539,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C163">
@@ -6583,15 +6565,15 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C164">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6605,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>9144</v>
+        <v>21864</v>
       </c>
       <c r="N164">
         <v>50000</v>
@@ -6617,7 +6599,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C165">
@@ -6643,15 +6625,15 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C166">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6665,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>21864</v>
+        <v>16299</v>
       </c>
       <c r="N166">
-        <v>50000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="167">
@@ -6677,11 +6659,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C167">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6703,15 +6685,15 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C168">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6725,10 +6707,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>16299</v>
+        <v>11065</v>
       </c>
       <c r="N168">
-        <v>58000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="169">
@@ -6737,11 +6719,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C169">
-        <v>6000</v>
+        <v>26000</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6763,15 +6745,15 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C170">
-        <v>26000</v>
+        <v>70000</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6785,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>11065</v>
+        <v>11218</v>
       </c>
       <c r="N170">
-        <v>50000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="171">
@@ -6797,11 +6779,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C171">
-        <v>70000</v>
+        <v>13000</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -6823,15 +6805,15 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C172">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6845,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>11218</v>
+        <v>17657</v>
       </c>
       <c r="N172">
-        <v>113000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="173">
@@ -6857,11 +6839,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C173">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -6883,15 +6865,15 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C174">
-        <v>15000</v>
+        <v>68000</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -6905,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>17657</v>
+        <v>29151</v>
       </c>
       <c r="N174">
-        <v>56000</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="175">
@@ -6917,11 +6899,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C175">
-        <v>68000</v>
+        <v>28000</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6943,15 +6925,15 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C176">
-        <v>28000</v>
+        <v>33500</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6965,10 +6947,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>29151</v>
+        <v>31022</v>
       </c>
       <c r="N176">
-        <v>176000</v>
+        <v>135500</v>
       </c>
     </row>
     <row r="177">
@@ -6977,11 +6959,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C177">
-        <v>33500</v>
+        <v>22000</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7003,15 +6985,15 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C178">
-        <v>22000</v>
+        <v>78600</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7025,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>31022</v>
+        <v>28828</v>
       </c>
       <c r="N178">
-        <v>135500</v>
+        <v>137600</v>
       </c>
     </row>
     <row r="179">
@@ -7037,11 +7019,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C179">
-        <v>78600</v>
+        <v>29000</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7063,15 +7045,15 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C180">
-        <v>29000</v>
+        <v>72900</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7085,10 +7067,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>28828</v>
+        <v>56787</v>
       </c>
       <c r="N180">
-        <v>137600</v>
+        <v>114900</v>
       </c>
     </row>
     <row r="181">
@@ -7097,11 +7079,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C181">
-        <v>72900</v>
+        <v>24000</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -7123,32 +7105,45 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C182">
-        <v>24000</v>
+        <v>15100</v>
+      </c>
+      <c r="E182">
+        <v>14582</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t>fishery officer</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>commercial catch records</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>assumed run timing</t>
+        </is>
+      </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182">
         <v>0</v>
       </c>
       <c r="M182">
-        <v>56787</v>
+        <v>89092</v>
       </c>
       <c r="N182">
-        <v>114900</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="183">
@@ -7157,14 +7152,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C183">
-        <v>15100</v>
+        <v>18000</v>
       </c>
       <c r="E183">
-        <v>14582</v>
+        <v>23692</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7182,7 +7177,7 @@
         </is>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183">
         <v>0</v>
@@ -7196,18 +7191,18 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C184">
-        <v>18000</v>
+        <v>39200</v>
       </c>
       <c r="E184">
-        <v>23692</v>
+        <v>13610</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -7225,16 +7220,16 @@
         </is>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184">
         <v>0</v>
       </c>
       <c r="M184">
-        <v>89092</v>
+        <v>51875</v>
       </c>
       <c r="N184">
-        <v>42100</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="185">
@@ -7243,14 +7238,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C185">
-        <v>39200</v>
+        <v>25000</v>
       </c>
       <c r="E185">
-        <v>13610</v>
+        <v>8665</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -7268,7 +7263,7 @@
         </is>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -7282,18 +7277,18 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C186">
-        <v>25000</v>
+        <v>93300</v>
       </c>
       <c r="E186">
-        <v>8665</v>
+        <v>83723</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -7311,16 +7306,16 @@
         </is>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186">
         <v>0</v>
       </c>
       <c r="M186">
-        <v>51875</v>
+        <v>225718</v>
       </c>
       <c r="N186">
-        <v>71700</v>
+        <v>139400</v>
       </c>
     </row>
     <row r="187">
@@ -7329,14 +7324,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C187">
-        <v>93300</v>
+        <v>42600</v>
       </c>
       <c r="E187">
-        <v>83723</v>
+        <v>28930</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -7354,7 +7349,7 @@
         </is>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -7368,18 +7363,18 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C188">
-        <v>42600</v>
+        <v>216100</v>
       </c>
       <c r="E188">
-        <v>28930</v>
+        <v>165390</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -7397,16 +7392,16 @@
         </is>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
         <v>0</v>
       </c>
       <c r="M188">
-        <v>225718</v>
+        <v>451615</v>
       </c>
       <c r="N188">
-        <v>139400</v>
+        <v>301700</v>
       </c>
     </row>
     <row r="189">
@@ -7415,14 +7410,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C189">
-        <v>216100</v>
+        <v>45600</v>
       </c>
       <c r="E189">
-        <v>165390</v>
+        <v>39337</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -7440,7 +7435,7 @@
         </is>
       </c>
       <c r="J189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -7454,18 +7449,18 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C190">
-        <v>45600</v>
+        <v>56300</v>
       </c>
       <c r="E190">
-        <v>39337</v>
+        <v>109793</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -7489,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>451615</v>
+        <v>427790</v>
       </c>
       <c r="N190">
-        <v>301700</v>
+        <v>98100</v>
       </c>
     </row>
     <row r="191">
@@ -7501,14 +7496,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C191">
-        <v>56300</v>
+        <v>35800</v>
       </c>
       <c r="E191">
-        <v>109793</v>
+        <v>91846</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -7540,18 +7535,18 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C192">
-        <v>35800</v>
+        <v>138100</v>
       </c>
       <c r="E192">
-        <v>91846</v>
+        <v>129499</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7575,10 +7570,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>427790</v>
+        <v>440977</v>
       </c>
       <c r="N192">
-        <v>98100</v>
+        <v>195600</v>
       </c>
     </row>
     <row r="193">
@@ -7587,14 +7582,14 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C193">
-        <v>138100</v>
+        <v>47500</v>
       </c>
       <c r="E193">
-        <v>129499</v>
+        <v>78617</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7626,18 +7621,18 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C194">
-        <v>47500</v>
+        <v>100600</v>
       </c>
       <c r="E194">
-        <v>78617</v>
+        <v>470815</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -7661,10 +7656,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>440977</v>
+        <v>1408490</v>
       </c>
       <c r="N194">
-        <v>195600</v>
+        <v>151800</v>
       </c>
     </row>
     <row r="195">
@@ -7673,14 +7668,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C195">
-        <v>100600</v>
+        <v>47700</v>
       </c>
       <c r="E195">
-        <v>470815</v>
+        <v>203610</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -7712,22 +7707,22 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C196">
-        <v>47700</v>
+        <v>212200</v>
       </c>
       <c r="E196">
-        <v>203610</v>
+        <v>794304.3566749521</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>fishery officer</t>
+          <t>resistivity counter</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7740,17 +7735,22 @@
           <t>assumed run timing</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>scale sampling</t>
+        </is>
+      </c>
       <c r="J196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196">
         <v>0</v>
       </c>
       <c r="M196">
-        <v>1408490</v>
+        <v>1122813.89493761</v>
       </c>
       <c r="N196">
-        <v>151800</v>
+        <v>297800</v>
       </c>
     </row>
     <row r="197">
@@ -7759,14 +7759,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C197">
-        <v>212200</v>
+        <v>80800</v>
       </c>
       <c r="E197">
-        <v>794304.3566749521</v>
+        <v>302449.5382626585</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         </is>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -7803,18 +7803,18 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C198">
-        <v>80800</v>
+        <v>114400</v>
       </c>
       <c r="E198">
-        <v>302449.5382626585</v>
+        <v>145531.0318997159</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -7837,16 +7837,16 @@
         </is>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
         <v>0</v>
       </c>
       <c r="M198">
-        <v>1122813.89493761</v>
+        <v>197067.6970766333</v>
       </c>
       <c r="N198">
-        <v>297800</v>
+        <v>158900</v>
       </c>
     </row>
     <row r="199">
@@ -7855,14 +7855,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C199">
-        <v>114400</v>
+        <v>37500</v>
       </c>
       <c r="E199">
-        <v>145531.0318997159</v>
+        <v>47704.66517691737</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         </is>
       </c>
       <c r="J199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -7899,18 +7899,18 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C200">
-        <v>37500</v>
+        <v>263995</v>
       </c>
       <c r="E200">
-        <v>47704.66517691737</v>
+        <v>540963.2816986635</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -7933,16 +7933,16 @@
         </is>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200">
         <v>0</v>
       </c>
       <c r="M200">
-        <v>197067.6970766333</v>
+        <v>821100.0024423746</v>
       </c>
       <c r="N200">
-        <v>158900</v>
+        <v>360441</v>
       </c>
     </row>
     <row r="201">
@@ -7951,14 +7951,14 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C201">
-        <v>263995</v>
+        <v>76446</v>
       </c>
       <c r="E201">
-        <v>540963.2816986635</v>
+        <v>156648.7207437111</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="J201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201">
         <v>0</v>
@@ -7995,18 +7995,18 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C202">
-        <v>76446</v>
+        <v>256516</v>
       </c>
       <c r="E202">
-        <v>156648.7207437111</v>
+        <v>421856.2559109447</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>commercial catch records</t>
+          <t>commercial + FN catch records</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8029,16 +8029,16 @@
         </is>
       </c>
       <c r="J202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202">
         <v>0</v>
       </c>
       <c r="M202">
-        <v>821100.0024423746</v>
+        <v>695952.2532801195</v>
       </c>
       <c r="N202">
-        <v>360441</v>
+        <v>415212</v>
       </c>
     </row>
     <row r="203">
@@ -8047,14 +8047,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C203">
-        <v>256516</v>
+        <v>137990</v>
       </c>
       <c r="E203">
-        <v>421856.2559109447</v>
+        <v>226932.9973691749</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         </is>
       </c>
       <c r="J203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203">
         <v>0</v>
@@ -8091,18 +8091,18 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C204">
-        <v>137990</v>
+        <v>213538</v>
       </c>
       <c r="E204">
-        <v>226932.9973691749</v>
+        <v>557539.3886574621</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8125,16 +8125,16 @@
         </is>
       </c>
       <c r="J204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204">
         <v>0</v>
       </c>
       <c r="M204">
-        <v>695952.2532801195</v>
+        <v>1038876.317981237</v>
       </c>
       <c r="N204">
-        <v>415212</v>
+        <v>410789</v>
       </c>
     </row>
     <row r="205">
@@ -8143,14 +8143,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C205">
-        <v>213538</v>
+        <v>139251</v>
       </c>
       <c r="E205">
-        <v>557539.3886574621</v>
+        <v>363578.929323775</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         </is>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205">
         <v>0</v>
@@ -8187,18 +8187,18 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C206">
-        <v>139251</v>
+        <v>179420</v>
       </c>
       <c r="E206">
-        <v>363578.929323775</v>
+        <v>185085.6637001739</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8221,16 +8221,16 @@
         </is>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206">
         <v>0</v>
       </c>
       <c r="M206">
-        <v>1038876.317981237</v>
+        <v>452601.0276631281</v>
       </c>
       <c r="N206">
-        <v>410789</v>
+        <v>464820</v>
       </c>
     </row>
     <row r="207">
@@ -8239,14 +8239,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C207">
-        <v>179420</v>
+        <v>248700</v>
       </c>
       <c r="E207">
-        <v>185085.6637001739</v>
+        <v>256553.3639629543</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         </is>
       </c>
       <c r="J207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L207">
         <v>0</v>
@@ -8283,18 +8283,18 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C208">
-        <v>248700</v>
+        <v>348102</v>
       </c>
       <c r="E208">
-        <v>256553.3639629543</v>
+        <v>508028.3034811231</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -8317,16 +8317,16 @@
         </is>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208">
         <v>0</v>
       </c>
       <c r="M208">
-        <v>452601.0276631281</v>
+        <v>887925.5541521215</v>
       </c>
       <c r="N208">
-        <v>464820</v>
+        <v>636512</v>
       </c>
     </row>
     <row r="209">
@@ -8335,14 +8335,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C209">
-        <v>348102</v>
+        <v>257410</v>
       </c>
       <c r="E209">
-        <v>508028.3034811231</v>
+        <v>375670.2506709985</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="J209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L209">
         <v>0</v>
@@ -8379,18 +8379,18 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C210">
-        <v>257410</v>
+        <v>133310</v>
       </c>
       <c r="E210">
-        <v>375670.2506709985</v>
+        <v>518834.7686808587</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>commercial + FN catch records</t>
+          <t>commercial + FN catch records + creel survey</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8413,16 +8413,16 @@
         </is>
       </c>
       <c r="J210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210">
         <v>0</v>
       </c>
       <c r="M210">
-        <v>887925.5541521215</v>
+        <v>945916</v>
       </c>
       <c r="N210">
-        <v>636512</v>
+        <v>295810.0000000001</v>
       </c>
     </row>
     <row r="211">
@@ -8431,14 +8431,14 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C211">
-        <v>133310</v>
+        <v>89100.00000000001</v>
       </c>
       <c r="E211">
-        <v>518834.7686808587</v>
+        <v>420949.2313191414</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="J211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -8475,18 +8475,18 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C212">
-        <v>89100.00000000001</v>
+        <v>120274</v>
       </c>
       <c r="E212">
-        <v>420949.2313191414</v>
+        <v>317599.9184047349</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -8509,16 +8509,16 @@
         </is>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212">
         <v>0</v>
       </c>
       <c r="M212">
-        <v>945916</v>
+        <v>458017.8992869732</v>
       </c>
       <c r="N212">
-        <v>295810.0000000001</v>
+        <v>285725</v>
       </c>
     </row>
     <row r="213">
@@ -8527,14 +8527,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C213">
-        <v>120274</v>
+        <v>146951</v>
       </c>
       <c r="E213">
-        <v>317599.9184047349</v>
+        <v>139968.9808822382</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -8571,18 +8571,18 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C214">
-        <v>146951</v>
+        <v>137807</v>
       </c>
       <c r="E214">
-        <v>139968.9808822382</v>
+        <v>10315.74151293448</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>458017.8992869732</v>
+        <v>56948</v>
       </c>
       <c r="N214">
-        <v>285725</v>
+        <v>334648</v>
       </c>
     </row>
     <row r="215">
@@ -8623,14 +8623,14 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C215">
-        <v>137807</v>
+        <v>192941</v>
       </c>
       <c r="E215">
-        <v>10315.74151293448</v>
+        <v>46602.25848706553</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         </is>
       </c>
       <c r="J215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -8667,18 +8667,18 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C216">
-        <v>192941</v>
+        <v>290714.9999999999</v>
       </c>
       <c r="E216">
-        <v>46602.25848706553</v>
+        <v>83017.40213865854</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8701,16 +8701,16 @@
         </is>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216">
         <v>0</v>
       </c>
       <c r="M216">
-        <v>56948</v>
+        <v>263260</v>
       </c>
       <c r="N216">
-        <v>334648</v>
+        <v>473349.9999999999</v>
       </c>
     </row>
     <row r="217">
@@ -8719,14 +8719,14 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C217">
-        <v>290714.9999999999</v>
+        <v>151835</v>
       </c>
       <c r="E217">
-        <v>83017.40213865854</v>
+        <v>171365.5978613414</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         </is>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -8763,18 +8763,18 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C218">
-        <v>151835</v>
+        <v>206676.0000000001</v>
       </c>
       <c r="E218">
-        <v>171365.5978613414</v>
+        <v>146833.0244309762</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -8797,16 +8797,16 @@
         </is>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218">
         <v>0</v>
       </c>
       <c r="M218">
-        <v>263260</v>
+        <v>326897.5916</v>
       </c>
       <c r="N218">
-        <v>473349.9999999999</v>
+        <v>482393.0000000001</v>
       </c>
     </row>
     <row r="219">
@@ -8815,14 +8815,14 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C219">
-        <v>206676.0000000001</v>
+        <v>235417</v>
       </c>
       <c r="E219">
-        <v>146833.0244309762</v>
+        <v>178270.5671690238</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="J219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L219">
         <v>0</v>
@@ -8859,18 +8859,18 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C220">
-        <v>235417</v>
+        <v>241263</v>
       </c>
       <c r="E220">
-        <v>178270.5671690238</v>
+        <v>14924.00087526265</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8893,16 +8893,16 @@
         </is>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220">
         <v>0</v>
       </c>
       <c r="M220">
-        <v>326897.5916</v>
+        <v>28383.471375</v>
       </c>
       <c r="N220">
-        <v>482393.0000000001</v>
+        <v>449850.0000000001</v>
       </c>
     </row>
     <row r="221">
@@ -8911,14 +8911,14 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C221">
-        <v>241263</v>
+        <v>167987</v>
       </c>
       <c r="E221">
-        <v>14924.00087526265</v>
+        <v>13403.47049973735</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="J221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L221">
         <v>0</v>
@@ -8955,18 +8955,18 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C222">
-        <v>167987</v>
+        <v>179091</v>
       </c>
       <c r="E222">
-        <v>13403.47049973735</v>
+        <v>19353.20374687612</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -8989,16 +8989,16 @@
         </is>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L222">
         <v>0</v>
       </c>
       <c r="M222">
-        <v>28383.471375</v>
+        <v>37390</v>
       </c>
       <c r="N222">
-        <v>449850.0000000001</v>
+        <v>323281</v>
       </c>
     </row>
     <row r="223">
@@ -9007,14 +9007,14 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C223">
-        <v>179091</v>
+        <v>112790</v>
       </c>
       <c r="E223">
-        <v>19353.20374687612</v>
+        <v>17235.79625312387</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L223">
         <v>0</v>
@@ -9051,18 +9051,18 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C224">
-        <v>112790</v>
+        <v>433390.0000000001</v>
       </c>
       <c r="E224">
-        <v>17235.79625312387</v>
+        <v>807514.4757371147</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9085,16 +9085,16 @@
         </is>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224">
         <v>0</v>
       </c>
       <c r="M224">
-        <v>37390</v>
+        <v>1181307</v>
       </c>
       <c r="N224">
-        <v>323281</v>
+        <v>680965.0000000001</v>
       </c>
     </row>
     <row r="225">
@@ -9103,14 +9103,14 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C225">
-        <v>433390.0000000001</v>
+        <v>209475</v>
       </c>
       <c r="E225">
-        <v>807514.4757371147</v>
+        <v>362597.5242628853</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         </is>
       </c>
       <c r="J225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L225">
         <v>0</v>
@@ -9147,18 +9147,18 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C226">
-        <v>209475</v>
+        <v>188153</v>
       </c>
       <c r="E226">
-        <v>362597.5242628853</v>
+        <v>178554.8334567147</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -9181,16 +9181,16 @@
         </is>
       </c>
       <c r="J226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L226">
         <v>0</v>
       </c>
       <c r="M226">
-        <v>1181307</v>
+        <v>579970.1466654321</v>
       </c>
       <c r="N226">
-        <v>680965.0000000001</v>
+        <v>437791</v>
       </c>
     </row>
     <row r="227">
@@ -9199,14 +9199,14 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C227">
-        <v>188153</v>
+        <v>221937.9999999999</v>
       </c>
       <c r="E227">
-        <v>178554.8334567147</v>
+        <v>392343.3132087174</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         </is>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L227">
         <v>0</v>
@@ -9243,18 +9243,18 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C228">
-        <v>221937.9999999999</v>
+        <v>241761</v>
       </c>
       <c r="E228">
-        <v>392343.3132087174</v>
+        <v>432423.2165285624</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9277,16 +9277,16 @@
         </is>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
       <c r="M228">
-        <v>579970.1466654321</v>
+        <v>817369</v>
       </c>
       <c r="N228">
-        <v>437791</v>
+        <v>627550</v>
       </c>
     </row>
     <row r="229">
@@ -9295,14 +9295,14 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C229">
-        <v>241761</v>
+        <v>205289</v>
       </c>
       <c r="E229">
-        <v>432423.2165285624</v>
+        <v>348206.7834714376</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         </is>
       </c>
       <c r="J229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L229">
         <v>0</v>
@@ -9339,18 +9339,18 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C230">
-        <v>205289</v>
+        <v>113493.0000000001</v>
       </c>
       <c r="E230">
-        <v>348206.7834714376</v>
+        <v>97352.95948420328</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9373,16 +9373,16 @@
         </is>
       </c>
       <c r="J230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230">
         <v>0</v>
       </c>
       <c r="M230">
-        <v>817369</v>
+        <v>214571</v>
       </c>
       <c r="N230">
-        <v>627550</v>
+        <v>274663.0000000001</v>
       </c>
     </row>
     <row r="231">
@@ -9391,14 +9391,14 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C231">
-        <v>113493.0000000001</v>
+        <v>143770.0000000001</v>
       </c>
       <c r="E231">
-        <v>97352.95948420328</v>
+        <v>82020.04051579669</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="J231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L231">
         <v>0</v>
@@ -9435,18 +9435,18 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C232">
-        <v>143770.0000000001</v>
+        <v>64011.00000000001</v>
       </c>
       <c r="E232">
-        <v>82020.04051579669</v>
+        <v>17925.29743190457</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -9469,16 +9469,16 @@
         </is>
       </c>
       <c r="J232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L232">
         <v>0</v>
       </c>
       <c r="M232">
-        <v>214571</v>
+        <v>30536.00420168067</v>
       </c>
       <c r="N232">
-        <v>274663.0000000001</v>
+        <v>170811</v>
       </c>
     </row>
     <row r="233">
@@ -9487,14 +9487,14 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C233">
-        <v>64011.00000000001</v>
+        <v>102400</v>
       </c>
       <c r="E233">
-        <v>17925.29743190457</v>
+        <v>12521.7067697761</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         </is>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L233">
         <v>0</v>
@@ -9531,18 +9531,18 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C234">
-        <v>102400</v>
+        <v>186382</v>
       </c>
       <c r="E234">
-        <v>12521.7067697761</v>
+        <v>26873.04375818335</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -9565,16 +9565,16 @@
         </is>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
         <v>0</v>
       </c>
       <c r="M234">
-        <v>30536.00420168067</v>
+        <v>62596.00000000001</v>
       </c>
       <c r="N234">
-        <v>170811</v>
+        <v>501780</v>
       </c>
     </row>
     <row r="235">
@@ -9583,14 +9583,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C235">
-        <v>186382</v>
+        <v>255498</v>
       </c>
       <c r="E235">
-        <v>26873.04375818335</v>
+        <v>33811.95624181666</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         </is>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L235">
         <v>0</v>
@@ -9627,18 +9627,18 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C236">
-        <v>255498</v>
+        <v>178115.9999999999</v>
       </c>
       <c r="E236">
-        <v>33811.95624181666</v>
+        <v>97280.64048682952</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>assumed run timing</t>
+          <t>MLE run timing model</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -9661,16 +9661,16 @@
         </is>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236">
         <v>0</v>
       </c>
       <c r="M236">
-        <v>62596.00000000001</v>
+        <v>156384</v>
       </c>
       <c r="N236">
-        <v>501780</v>
+        <v>356203.9999999999</v>
       </c>
     </row>
     <row r="237">
@@ -9679,14 +9679,14 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C237">
-        <v>178115.9999999999</v>
+        <v>131888</v>
       </c>
       <c r="E237">
-        <v>97280.64048682952</v>
+        <v>45690.35951317049</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         </is>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L237">
         <v>0</v>
@@ -9723,18 +9723,18 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C238">
-        <v>131888</v>
+        <v>274013.0000000001</v>
       </c>
       <c r="E238">
-        <v>45690.35951317049</v>
+        <v>132609.2741320956</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -9757,16 +9757,16 @@
         </is>
       </c>
       <c r="J238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L238">
         <v>0</v>
       </c>
       <c r="M238">
-        <v>156384</v>
+        <v>235130.7241488512</v>
       </c>
       <c r="N238">
-        <v>356203.9999999999</v>
+        <v>640127.0000000001</v>
       </c>
     </row>
     <row r="239">
@@ -9775,14 +9775,14 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C239">
-        <v>274013.0000000001</v>
+        <v>274014.0000000001</v>
       </c>
       <c r="E239">
-        <v>132609.2741320956</v>
+        <v>75320.45001675557</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         </is>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L239">
         <v>0</v>
@@ -9819,18 +9819,18 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C240">
-        <v>274014.0000000001</v>
+        <v>211111.2792766747</v>
       </c>
       <c r="E240">
-        <v>75320.45001675557</v>
+        <v>58635.86069137148</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9853,16 +9853,16 @@
         </is>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L240">
         <v>0</v>
       </c>
       <c r="M240">
-        <v>235130.7241488512</v>
+        <v>115856.068</v>
       </c>
       <c r="N240">
-        <v>640127.0000000001</v>
+        <v>394147.213702481</v>
       </c>
     </row>
     <row r="241">
@@ -9871,14 +9871,14 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C241">
-        <v>211111.2792766747</v>
+        <v>169635.9344258063</v>
       </c>
       <c r="E241">
-        <v>58635.86069137148</v>
+        <v>55911.20730862853</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         </is>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L241">
         <v>0</v>
@@ -9915,18 +9915,18 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C242">
-        <v>169635.9344258063</v>
+        <v>71659.00000000004</v>
       </c>
       <c r="E242">
-        <v>55911.20730862853</v>
+        <v>37113.06465680368</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -9949,16 +9949,16 @@
         </is>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L242">
         <v>0</v>
       </c>
       <c r="M242">
-        <v>115856.068</v>
+        <v>105163.5893782173</v>
       </c>
       <c r="N242">
-        <v>394147.213702481</v>
+        <v>223098.0000000001</v>
       </c>
     </row>
     <row r="243">
@@ -9967,14 +9967,14 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C243">
-        <v>71659.00000000004</v>
+        <v>126339</v>
       </c>
       <c r="E243">
-        <v>37113.06465680368</v>
+        <v>67796.52472141362</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         </is>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L243">
         <v>0</v>
@@ -10011,18 +10011,18 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C244">
-        <v>126339</v>
+        <v>408826.862243237</v>
       </c>
       <c r="E244">
-        <v>67796.52472141362</v>
+        <v>113863.9823215375</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -10045,16 +10045,16 @@
         </is>
       </c>
       <c r="J244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L244">
         <v>0</v>
       </c>
       <c r="M244">
-        <v>105163.5893782173</v>
+        <v>233776.9205341995</v>
       </c>
       <c r="N244">
-        <v>223098.0000000001</v>
+        <v>800244.862243237</v>
       </c>
     </row>
     <row r="245">
@@ -10063,14 +10063,14 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C245">
-        <v>408826.862243237</v>
+        <v>371518</v>
       </c>
       <c r="E245">
-        <v>113863.9823215375</v>
+        <v>117872.9382126621</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -10093,32 +10093,32 @@
         </is>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L245">
         <v>0</v>
       </c>
       <c r="M245">
-        <v>235816.9205341995</v>
+        <v>233776.9205341995</v>
       </c>
       <c r="N245">
-        <v>820144.862243237</v>
+        <v>800244.862243237</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C246">
-        <v>371518</v>
+        <v>284855.7806640533</v>
       </c>
       <c r="E246">
-        <v>117872.9382126621</v>
+        <v>384591.3972696845</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -10141,16 +10141,16 @@
         </is>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246">
         <v>0</v>
       </c>
       <c r="M246">
-        <v>235816.9205341995</v>
+        <v>600455.7875803118</v>
       </c>
       <c r="N246">
-        <v>820144.862243237</v>
+        <v>522744.7806640534</v>
       </c>
     </row>
     <row r="247">
@@ -10159,14 +10159,14 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C247">
-        <v>284855.7806640533</v>
+        <v>220189.0000000001</v>
       </c>
       <c r="E247">
-        <v>384591.3972696845</v>
+        <v>211952.3903106272</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L247">
         <v>0</v>
@@ -10203,18 +10203,18 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C248">
-        <v>220189.0000000001</v>
+        <v>250967.6307078648</v>
       </c>
       <c r="E248">
-        <v>211952.3903106272</v>
+        <v>276616.6663030458</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -10237,16 +10237,16 @@
         </is>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248">
         <v>0</v>
       </c>
       <c r="M248">
-        <v>600455.7875803118</v>
+        <v>531341.3718806775</v>
       </c>
       <c r="N248">
-        <v>522744.7806640534</v>
+        <v>443175.6307078647</v>
       </c>
     </row>
     <row r="249">
@@ -10255,14 +10255,14 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C249">
-        <v>250967.6307078648</v>
+        <v>188907.9999999999</v>
       </c>
       <c r="E249">
-        <v>276616.6663030458</v>
+        <v>254487.7055776317</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L249">
         <v>0</v>
@@ -10299,18 +10299,18 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C250">
-        <v>188907.9999999999</v>
+        <v>224638</v>
       </c>
       <c r="E250">
-        <v>254487.7055776317</v>
+        <v>202386.6849503428</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -10333,16 +10333,16 @@
         </is>
       </c>
       <c r="J250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L250">
         <v>0</v>
       </c>
       <c r="M250">
-        <v>531341.3718806775</v>
+        <v>334435.1661</v>
       </c>
       <c r="N250">
-        <v>443175.6307078647</v>
+        <v>377681</v>
       </c>
     </row>
     <row r="251">
@@ -10351,14 +10351,14 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C251">
-        <v>224638</v>
+        <v>150443</v>
       </c>
       <c r="E251">
-        <v>202386.6849503428</v>
+        <v>132038.4811496573</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L251">
         <v>0</v>
@@ -10395,18 +10395,18 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C252">
-        <v>150443</v>
+        <v>194678.1407832186</v>
       </c>
       <c r="E252">
-        <v>132038.4811496573</v>
+        <v>63306.91610701918</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -10429,16 +10429,16 @@
         </is>
       </c>
       <c r="J252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
       <c r="M252">
-        <v>334435.1661</v>
+        <v>105345.3813728291</v>
       </c>
       <c r="N252">
-        <v>377681</v>
+        <v>347117.1404960908</v>
       </c>
     </row>
     <row r="253">
@@ -10447,14 +10447,14 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C253">
-        <v>194678.1407832186</v>
+        <v>151138.9997128722</v>
       </c>
       <c r="E253">
-        <v>63306.91610701918</v>
+        <v>41737.46526580991</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         </is>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L253">
         <v>0</v>
@@ -10491,18 +10491,18 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C254">
-        <v>151138.9997128722</v>
+        <v>136246.7296855859</v>
       </c>
       <c r="E254">
-        <v>41737.46526580991</v>
+        <v>61287.76745850981</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -10525,16 +10525,16 @@
         </is>
       </c>
       <c r="J254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L254">
         <v>0</v>
       </c>
       <c r="M254">
-        <v>105345.3813728291</v>
+        <v>90500.48540000001</v>
       </c>
       <c r="N254">
-        <v>347117.1404960908</v>
+        <v>203635.7296855859</v>
       </c>
     </row>
     <row r="255">
@@ -10543,14 +10543,14 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C255">
-        <v>136246.7296855859</v>
+        <v>63788.99999999998</v>
       </c>
       <c r="E255">
-        <v>61287.76745850981</v>
+        <v>28915.71794149018</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         </is>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L255">
         <v>0</v>
@@ -10587,18 +10587,18 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C256">
-        <v>63788.99999999998</v>
+        <v>77622.00000000004</v>
       </c>
       <c r="E256">
-        <v>28915.71794149018</v>
+        <v>5003.304152842727</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -10621,16 +10621,16 @@
         </is>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L256">
         <v>0</v>
       </c>
       <c r="M256">
-        <v>90500.48540000001</v>
+        <v>10040</v>
       </c>
       <c r="N256">
-        <v>203635.7296855859</v>
+        <v>162815.0000000001</v>
       </c>
     </row>
     <row r="257">
@@ -10639,14 +10639,14 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C257">
-        <v>77622.00000000004</v>
+        <v>72693</v>
       </c>
       <c r="E257">
-        <v>5003.304152842727</v>
+        <v>4755.695847157274</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         </is>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L257">
         <v>0</v>
@@ -10683,22 +10683,22 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C258">
-        <v>72693</v>
+        <v>74024.00675675675</v>
       </c>
       <c r="E258">
-        <v>4755.695847157274</v>
+        <v>0</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>resistivity counter</t>
+          <t>video counts</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -10708,7 +10708,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>MLE run timing model</t>
+          <t>escapement</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -10717,16 +10717,16 @@
         </is>
       </c>
       <c r="J258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258">
         <v>0</v>
       </c>
       <c r="M258">
-        <v>10040</v>
+        <v>0</v>
       </c>
       <c r="N258">
-        <v>162815.0000000001</v>
+        <v>203968.0067567567</v>
       </c>
     </row>
     <row r="259">
@@ -10735,11 +10735,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C259">
-        <v>74024.00675675675</v>
+        <v>116844</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -10765,7 +10765,7 @@
         </is>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L259">
         <v>0</v>
@@ -10779,18 +10779,18 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C260">
-        <v>116844</v>
+        <v>222241.2876649233</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>86640.18459735703</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>escapement</t>
+          <t>assumed run timing</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -10813,16 +10813,16 @@
         </is>
       </c>
       <c r="J260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L260">
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0</v>
+        <v>149521.6328902802</v>
       </c>
       <c r="N260">
-        <v>203968.0067567567</v>
+        <v>430072.2876649234</v>
       </c>
     </row>
     <row r="261">
@@ -10831,14 +10831,14 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C261">
-        <v>222241.2876649233</v>
+        <v>177831.0000000001</v>
       </c>
       <c r="E261">
-        <v>86640.18459735703</v>
+        <v>62881.44829292317</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L261">
         <v>0</v>
@@ -10875,18 +10875,18 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C262">
-        <v>177831.0000000001</v>
+        <v>343999</v>
       </c>
       <c r="E262">
-        <v>62881.44829292317</v>
+        <v>496565.0420667162</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -10909,16 +10909,16 @@
         </is>
       </c>
       <c r="J262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L262">
         <v>0</v>
       </c>
       <c r="M262">
-        <v>149521.6328902802</v>
+        <v>938124.682827242</v>
       </c>
       <c r="N262">
-        <v>430072.2876649234</v>
+        <v>830435</v>
       </c>
     </row>
     <row r="263">
@@ -10927,14 +10927,14 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C263">
-        <v>343999</v>
+        <v>456436.0000000001</v>
       </c>
       <c r="E263">
-        <v>496565.0420667162</v>
+        <v>441559.6407605257</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         </is>
       </c>
       <c r="J263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L263">
         <v>0</v>
@@ -10971,18 +10971,18 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C264">
-        <v>456436.0000000001</v>
+        <v>445819.9999999999</v>
       </c>
       <c r="E264">
-        <v>441559.6407605257</v>
+        <v>321344.7875944228</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>assumed run timing</t>
+          <t>DNA attribution</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -11005,16 +11005,16 @@
         </is>
       </c>
       <c r="J264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L264">
         <v>0</v>
       </c>
       <c r="M264">
-        <v>938124.682827242</v>
+        <v>590914.3653989306</v>
       </c>
       <c r="N264">
-        <v>830435</v>
+        <v>905456.9999999998</v>
       </c>
     </row>
     <row r="265">
@@ -11023,14 +11023,14 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C265">
-        <v>445819.9999999999</v>
+        <v>439213.9999999999</v>
       </c>
       <c r="E265">
-        <v>321344.7875944228</v>
+        <v>262604.5778045079</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         </is>
       </c>
       <c r="J265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L265">
         <v>0</v>
@@ -11067,18 +11067,18 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C266">
-        <v>439213.9999999999</v>
+        <v>149343.9999999999</v>
       </c>
       <c r="E266">
-        <v>262604.5778045079</v>
+        <v>181516.9165734799</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -11101,16 +11101,16 @@
         </is>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L266">
         <v>0</v>
       </c>
       <c r="M266">
-        <v>590914.3653989306</v>
+        <v>385592.5588652157</v>
       </c>
       <c r="N266">
-        <v>905456.9999999998</v>
+        <v>395857.9999999999</v>
       </c>
     </row>
     <row r="267">
@@ -11119,14 +11119,14 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C267">
-        <v>149343.9999999999</v>
+        <v>229381</v>
       </c>
       <c r="E267">
-        <v>181516.9165734799</v>
+        <v>198133.6422917358</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L267">
         <v>0</v>
@@ -11163,18 +11163,18 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C268">
-        <v>229381</v>
+        <v>184732.5000000001</v>
       </c>
       <c r="E268">
-        <v>198133.6422917358</v>
+        <v>26580.1391093958</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L268">
         <v>0</v>
       </c>
       <c r="M268">
-        <v>385592.5588652157</v>
+        <v>89406.92896357566</v>
       </c>
       <c r="N268">
-        <v>395857.9999999999</v>
+        <v>664957.5864587885</v>
       </c>
     </row>
     <row r="269">
@@ -11215,14 +11215,14 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C269">
-        <v>184732.5000000001</v>
+        <v>467725.0864587884</v>
       </c>
       <c r="E269">
-        <v>26580.1391093958</v>
+        <v>61701.78985417985</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         </is>
       </c>
       <c r="J269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L269">
         <v>0</v>
@@ -11259,18 +11259,18 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C270">
-        <v>467725.0864587884</v>
+        <v>162685.7579745326</v>
       </c>
       <c r="E270">
-        <v>61701.78985417985</v>
+        <v>191765.2559201121</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -11293,16 +11293,16 @@
         </is>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L270">
         <v>0</v>
       </c>
       <c r="M270">
-        <v>89406.92896357566</v>
+        <v>676503.3420213063</v>
       </c>
       <c r="N270">
-        <v>664957.5864587885</v>
+        <v>539951.848459169</v>
       </c>
     </row>
     <row r="271">
@@ -11311,14 +11311,14 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C271">
-        <v>162685.7579745326</v>
+        <v>365429.0904846364</v>
       </c>
       <c r="E271">
-        <v>191765.2559201121</v>
+        <v>463082.0861011941</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="J271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L271">
         <v>0</v>
@@ -11355,18 +11355,18 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C272">
-        <v>365429.0904846364</v>
+        <v>427539.0700000001</v>
       </c>
       <c r="E272">
-        <v>463082.0861011941</v>
+        <v>576323</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -11389,16 +11389,16 @@
         </is>
       </c>
       <c r="J272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272">
         <v>0</v>
       </c>
       <c r="M272">
-        <v>676503.3420213063</v>
+        <v>1309599</v>
       </c>
       <c r="N272">
-        <v>539951.848459169</v>
+        <v>764186.6399999999</v>
       </c>
     </row>
     <row r="273">
@@ -11407,14 +11407,14 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C273">
-        <v>427539.0700000001</v>
+        <v>330247.5699999999</v>
       </c>
       <c r="E273">
-        <v>576323</v>
+        <v>728084</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="J273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L273">
         <v>0</v>
@@ -11451,18 +11451,18 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C274">
-        <v>330247.5699999999</v>
+        <v>224362.26</v>
       </c>
       <c r="E274">
-        <v>728084</v>
+        <v>346601</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -11485,16 +11485,16 @@
         </is>
       </c>
       <c r="J274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
         <v>0</v>
       </c>
       <c r="M274">
-        <v>1309599</v>
+        <v>662128</v>
       </c>
       <c r="N274">
-        <v>764186.6399999999</v>
+        <v>468215.01</v>
       </c>
     </row>
     <row r="275">
@@ -11503,14 +11503,14 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C275">
-        <v>224362.26</v>
+        <v>233152.75</v>
       </c>
       <c r="E275">
-        <v>346601</v>
+        <v>292416</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         </is>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L275">
         <v>0</v>
@@ -11547,18 +11547,18 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C276">
-        <v>233152.75</v>
+        <v>138816.9999999999</v>
       </c>
       <c r="E276">
-        <v>292416</v>
+        <v>35952.90842462306</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -11581,16 +11581,16 @@
         </is>
       </c>
       <c r="J276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L276">
         <v>0</v>
       </c>
       <c r="M276">
-        <v>662128</v>
+        <v>97288.52343308111</v>
       </c>
       <c r="N276">
-        <v>468215.01</v>
+        <v>457992.6800000002</v>
       </c>
     </row>
     <row r="277">
@@ -11599,14 +11599,14 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C277">
-        <v>138816.9999999999</v>
+        <v>296471.6800000002</v>
       </c>
       <c r="E277">
-        <v>35952.90842462306</v>
+        <v>58118.61500845804</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         </is>
       </c>
       <c r="J277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L277">
         <v>0</v>
@@ -11643,18 +11643,18 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C278">
-        <v>296471.6800000002</v>
+        <v>38619.78999999999</v>
       </c>
       <c r="E278">
-        <v>58118.61500845804</v>
+        <v>15271.24414467358</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -11677,16 +11677,16 @@
         </is>
       </c>
       <c r="J278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L278">
         <v>0</v>
       </c>
       <c r="M278">
-        <v>97288.52343308111</v>
+        <v>82158.61597752468</v>
       </c>
       <c r="N278">
-        <v>457992.6800000002</v>
+        <v>208635.1100000002</v>
       </c>
     </row>
     <row r="279">
@@ -11695,14 +11695,14 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C279">
-        <v>38619.78999999999</v>
+        <v>157812.3200000002</v>
       </c>
       <c r="E279">
-        <v>15271.24414467358</v>
+        <v>66261.3718328511</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         </is>
       </c>
       <c r="J279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L279">
         <v>0</v>
@@ -11739,18 +11739,18 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C280">
-        <v>157812.3200000002</v>
+        <v>48820.01</v>
       </c>
       <c r="E280">
-        <v>66261.3718328511</v>
+        <v>14863.06220666183</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -11773,16 +11773,16 @@
         </is>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280">
         <v>0</v>
       </c>
       <c r="M280">
-        <v>82158.61597752468</v>
+        <v>54797.43787213185</v>
       </c>
       <c r="N280">
-        <v>208635.1100000002</v>
+        <v>191725.02</v>
       </c>
     </row>
     <row r="281">
@@ -11791,14 +11791,14 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C281">
-        <v>48820.01</v>
+        <v>129356.01</v>
       </c>
       <c r="E281">
-        <v>14863.06220666183</v>
+        <v>39780.37566547002</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="J281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L281">
         <v>0</v>
@@ -11835,18 +11835,18 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C282">
-        <v>129356.01</v>
+        <v>139976.06</v>
       </c>
       <c r="E282">
-        <v>39780.37566547002</v>
+        <v>34161.94953692595</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -11869,16 +11869,16 @@
         </is>
       </c>
       <c r="J282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L282">
         <v>0</v>
       </c>
       <c r="M282">
-        <v>54797.43787213185</v>
+        <v>74112.09621734613</v>
       </c>
       <c r="N282">
-        <v>191725.02</v>
+        <v>314010.15</v>
       </c>
     </row>
     <row r="283">
@@ -11887,14 +11887,14 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C283">
-        <v>139976.06</v>
+        <v>169445.09</v>
       </c>
       <c r="E283">
-        <v>34161.94953692595</v>
+        <v>39507.14668042018</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         </is>
       </c>
       <c r="J283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L283">
         <v>0</v>
@@ -11931,18 +11931,18 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C284">
-        <v>169445.09</v>
+        <v>225180</v>
       </c>
       <c r="E284">
-        <v>39507.14668042018</v>
+        <v>113676</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -11965,16 +11965,16 @@
         </is>
       </c>
       <c r="J284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L284">
         <v>0</v>
       </c>
       <c r="M284">
-        <v>74112.09621734613</v>
+        <v>187163</v>
       </c>
       <c r="N284">
-        <v>314010.15</v>
+        <v>422040</v>
       </c>
     </row>
     <row r="285">
@@ -11983,14 +11983,14 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C285">
-        <v>225180</v>
+        <v>182340</v>
       </c>
       <c r="E285">
-        <v>113676</v>
+        <v>69128</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         </is>
       </c>
       <c r="J285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L285">
         <v>0</v>
@@ -12027,18 +12027,18 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C286">
-        <v>182340</v>
+        <v>235763</v>
       </c>
       <c r="E286">
-        <v>69128</v>
+        <v>110012</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -12061,16 +12061,16 @@
         </is>
       </c>
       <c r="J286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L286">
         <v>0</v>
       </c>
       <c r="M286">
-        <v>187163</v>
+        <v>351689</v>
       </c>
       <c r="N286">
-        <v>422040</v>
+        <v>669650</v>
       </c>
     </row>
     <row r="287">
@@ -12079,14 +12079,14 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C287">
-        <v>235763</v>
+        <v>415241</v>
       </c>
       <c r="E287">
-        <v>110012</v>
+        <v>233946</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="J287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L287">
         <v>0</v>
@@ -12123,18 +12123,18 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SPR</t>
+          <t>GCL</t>
         </is>
       </c>
       <c r="C288">
-        <v>415241</v>
+        <v>209265.0000000001</v>
       </c>
       <c r="E288">
-        <v>233946</v>
+        <v>141594.4059457992</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -12157,16 +12157,16 @@
         </is>
       </c>
       <c r="J288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L288">
         <v>0</v>
       </c>
       <c r="M288">
-        <v>351689</v>
+        <v>328495.6625937843</v>
       </c>
       <c r="N288">
-        <v>669650</v>
+        <v>377396.0000000001</v>
       </c>
     </row>
     <row r="289">
@@ -12175,14 +12175,14 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>GCL</t>
+          <t>SPR</t>
         </is>
       </c>
       <c r="C289">
-        <v>209265.0000000001</v>
+        <v>155018</v>
       </c>
       <c r="E289">
-        <v>141594.4059457992</v>
+        <v>178705.2566479851</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         </is>
       </c>
       <c r="J289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L289">
         <v>0</v>
@@ -12219,55 +12219,31 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>2023</v>
+        <v>1926</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>SPR</t>
-        </is>
-      </c>
-      <c r="C290">
-        <v>155018</v>
+          <t>GCL + SPR</t>
+        </is>
       </c>
       <c r="E290">
-        <v>178705.2566479851</v>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>video counts</t>
-        </is>
+        <v>10000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>commercial + FN catch records + creel survey</t>
-        </is>
-      </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>DNA attribution</t>
-        </is>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>scale sampling</t>
-        </is>
-      </c>
-      <c r="J290">
-        <v>0</v>
-      </c>
-      <c r="L290">
-        <v>0</v>
+          <t>commercial catch records</t>
+        </is>
       </c>
       <c r="M290">
-        <v>328495.6625937843</v>
+        <v>45412</v>
       </c>
       <c r="N290">
-        <v>377396.0000000001</v>
+        <v>75695</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -12275,7 +12251,7 @@
         </is>
       </c>
       <c r="E291">
-        <v>10000</v>
+        <v>65400</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -12283,15 +12259,15 @@
         </is>
       </c>
       <c r="M291">
-        <v>45412</v>
+        <v>91069</v>
       </c>
       <c r="N291">
-        <v>75695</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -12299,7 +12275,7 @@
         </is>
       </c>
       <c r="E292">
-        <v>65400</v>
+        <v>23000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -12307,7 +12283,7 @@
         </is>
       </c>
       <c r="M292">
-        <v>91069</v>
+        <v>38000</v>
       </c>
       <c r="N292">
         <v>70000</v>
@@ -12315,7 +12291,7 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -12323,7 +12299,7 @@
         </is>
       </c>
       <c r="E293">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -12331,15 +12307,15 @@
         </is>
       </c>
       <c r="M293">
-        <v>38000</v>
+        <v>18000</v>
       </c>
       <c r="N293">
-        <v>70000</v>
+        <v>138018</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -12347,7 +12323,7 @@
         </is>
       </c>
       <c r="E294">
-        <v>18000</v>
+        <v>48000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -12355,15 +12331,15 @@
         </is>
       </c>
       <c r="M294">
-        <v>18000</v>
+        <v>58600</v>
       </c>
       <c r="N294">
-        <v>138018</v>
+        <v>49501</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -12371,7 +12347,7 @@
         </is>
       </c>
       <c r="E295">
-        <v>48000</v>
+        <v>39000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -12379,15 +12355,15 @@
         </is>
       </c>
       <c r="M295">
-        <v>58600</v>
+        <v>59260</v>
       </c>
       <c r="N295">
-        <v>49501</v>
+        <v>56920</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -12395,7 +12371,7 @@
         </is>
       </c>
       <c r="E296">
-        <v>39000</v>
+        <v>77000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -12403,15 +12379,15 @@
         </is>
       </c>
       <c r="M296">
-        <v>59260</v>
+        <v>105000</v>
       </c>
       <c r="N296">
-        <v>56920</v>
+        <v>37472</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -12419,7 +12395,7 @@
         </is>
       </c>
       <c r="E297">
-        <v>77000</v>
+        <v>60000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -12427,15 +12403,15 @@
         </is>
       </c>
       <c r="M297">
-        <v>105000</v>
+        <v>80500</v>
       </c>
       <c r="N297">
-        <v>37472</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -12443,7 +12419,7 @@
         </is>
       </c>
       <c r="E298">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -12451,33 +12427,9 @@
         </is>
       </c>
       <c r="M298">
-        <v>80500</v>
+        <v>81500</v>
       </c>
       <c r="N298">
-        <v>9206</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299">
-        <v>1934</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>GCL + SPR</t>
-        </is>
-      </c>
-      <c r="E299">
-        <v>75000</v>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>commercial catch records</t>
-        </is>
-      </c>
-      <c r="M299">
-        <v>81500</v>
-      </c>
-      <c r="N299">
         <v>19858</v>
       </c>
     </row>

--- a/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
+++ b/3. outputs/Total return time series/Barkley Sockeye total annual returns by CU_collated.xlsx
@@ -438,9 +438,6 @@
           <t>HUC</t>
         </is>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>7400000</v>
       </c>
@@ -462,9 +459,6 @@
           <t>cannery pack</t>
         </is>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>4078000</v>
       </c>
@@ -485,9 +479,6 @@
         <is>
           <t>cannery pack</t>
         </is>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>6995075</v>
